--- a/doc/04.Schedule/工作计划.xlsx
+++ b/doc/04.Schedule/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AT$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="168">
   <si>
     <t>提示：点上面加号可以展开计划审核明细</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -460,284 +460,314 @@
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>编制文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制同步平台的具体实现功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(数据月结、日结)设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(数据月结、日结)功能开发及相关报表调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>程序优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各报表查询速度优化及实现SQL作业脚本每日股票收盘价取得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目服务器迁移准备工作，10.10.10.2服务器相关软件安装配置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Wind数据同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1分钟数同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步股票的1分钟数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割单数据导入，并按账号核对交割单与交易员导入的数据是否完全。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>交易系统实施</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对零散的同步整合在一个平台下面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报屏系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有报屏系统优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日、周、月 对帐流程说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林福生、王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号、人员、股票 固定格式报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员、股票、账号 固定格式报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员、账户、股票 多维度查询报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员、账户、股票 多维度查询报表修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票汇总下面能看到交易数据明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员收益情况台帐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以统计某段时间内每天每个人收益明细，及所有人的收益汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>按交割单数据统计账号的收益流水和和相关报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短差交易员每天买卖标识用程序实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方账号盈亏统计需要重新开发(与现有的数据分开来)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖标识报表上增加 盈亏金额和 多买、多卖股票数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>王贵斌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>短差交易员每天买卖标识用程序实现</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编制文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制同步平台的具体实现功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结帐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结帐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(数据月结、日结)设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(数据月结、日结)功能开发及相关报表调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>程序优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各报表查询速度优化及实现SQL作业脚本每日股票收盘价取得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目服务器迁移准备工作，10.10.10.2服务器相关软件安装配置。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Wind数据同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1分钟数同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步股票的1分钟数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>数据核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交割单数据导入，并按账号核对交割单与交易员导入的数据是否完全。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>交易系统实施</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对零散的同步整合在一个平台下面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报屏系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有报屏系统优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对帐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日、周、月 对帐流程说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林福生、王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号、人员、股票 固定格式报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员、股票、账号 固定格式报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员、账户、股票 多维度查询报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员、账户、股票 多维度查询报表修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票汇总下面能看到交易数据明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员收益情况台帐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以统计某段时间内每天每个人收益明细，及所有人的收益汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>按交割单数据统计账号的收益流水和和相关报表</t>
+    <t>账户信息表增加字段，开户收在地</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1494,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW314"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1608,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>4</v>
@@ -1623,7 +1653,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="14" t="s">
@@ -1742,7 +1772,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>47</v>
@@ -1776,7 +1806,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>76</v>
@@ -1808,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>66</v>
@@ -1842,7 +1872,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>64</v>
@@ -1876,7 +1906,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>79</v>
@@ -1908,10 +1938,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="58">
@@ -1940,7 +1970,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>73</v>
@@ -2007,10 +2037,10 @@
         <v>68</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="58">
@@ -2039,10 +2069,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="58">
@@ -2068,13 +2098,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>120</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="58">
@@ -2084,7 +2114,7 @@
         <v>42623</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -2103,10 +2133,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="58">
@@ -2116,7 +2146,7 @@
         <v>42624</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -2135,7 +2165,7 @@
         <v>68</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>80</v>
@@ -2167,7 +2197,7 @@
         <v>68</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>78</v>
@@ -2199,7 +2229,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" s="55" t="s">
         <v>57</v>
@@ -2259,13 +2289,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="56">
@@ -2273,7 +2303,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -2289,13 +2319,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="56">
@@ -2303,7 +2333,7 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
@@ -2319,13 +2349,13 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="56">
@@ -2333,7 +2363,7 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -2352,7 +2382,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="55" t="s">
         <v>58</v>
@@ -2382,10 +2412,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="56">
@@ -2412,10 +2442,10 @@
         <v>69</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="56">
@@ -2423,14 +2453,14 @@
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="24" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="25.15" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>44</v>
@@ -2442,10 +2472,10 @@
         <v>68</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="56">
@@ -2453,14 +2483,14 @@
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" ht="25.15" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>44</v>
@@ -2472,10 +2502,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="61">
@@ -2490,7 +2520,7 @@
     </row>
     <row r="25" spans="1:12" ht="25.15" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>44</v>
@@ -2502,10 +2532,10 @@
         <v>68</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="62"/>
@@ -2518,7 +2548,7 @@
     </row>
     <row r="26" spans="1:12" ht="25.15" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>44</v>
@@ -2530,13 +2560,13 @@
         <v>68</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="56">
         <v>42660</v>
@@ -2550,7 +2580,7 @@
     </row>
     <row r="27" spans="1:12" ht="29.25" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>44</v>
@@ -2562,13 +2592,13 @@
         <v>68</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>147</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>149</v>
       </c>
       <c r="H27" s="56">
         <v>42663</v>
@@ -2582,7 +2612,7 @@
     </row>
     <row r="28" spans="1:12" ht="25.15" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>44</v>
@@ -2594,7 +2624,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>59</v>
@@ -2614,7 +2644,7 @@
     </row>
     <row r="29" spans="1:12" ht="25.15" customHeight="1">
       <c r="A29" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>44</v>
@@ -2626,10 +2656,10 @@
         <v>69</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="56">
@@ -2637,14 +2667,14 @@
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="25.15" customHeight="1">
       <c r="A30" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>44</v>
@@ -2656,10 +2686,10 @@
         <v>69</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="56">
@@ -2674,7 +2704,7 @@
     </row>
     <row r="31" spans="1:12" ht="25.15" customHeight="1">
       <c r="A31" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>44</v>
@@ -2686,7 +2716,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="54" t="s">
         <v>52</v>
@@ -2697,14 +2727,14 @@
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="25.15" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>44</v>
@@ -2716,7 +2746,7 @@
         <v>69</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F32" s="54" t="s">
         <v>50</v>
@@ -2734,7 +2764,7 @@
     </row>
     <row r="33" spans="1:49" ht="25.15" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>44</v>
@@ -2746,7 +2776,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F33" s="54" t="s">
         <v>54</v>
@@ -2764,7 +2794,7 @@
     </row>
     <row r="34" spans="1:49" ht="25.15" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>44</v>
@@ -2776,7 +2806,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="55" t="s">
         <v>55</v>
@@ -2792,7 +2822,7 @@
     </row>
     <row r="35" spans="1:49" ht="25.15" customHeight="1">
       <c r="A35" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>44</v>
@@ -2804,7 +2834,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>61</v>
@@ -2820,7 +2850,7 @@
     </row>
     <row r="36" spans="1:49" ht="27.75" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>44</v>
@@ -2832,7 +2862,7 @@
         <v>69</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="25" t="s">
         <v>62</v>
@@ -2850,7 +2880,7 @@
     </row>
     <row r="37" spans="1:49" ht="25.15" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>44</v>
@@ -2862,7 +2892,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="55" t="s">
         <v>53</v>
@@ -2877,44 +2907,86 @@
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:49" ht="25.15" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="25"/>
+      <c r="A38" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="G38" s="26"/>
       <c r="H38" s="56"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:49" ht="25.15" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
+      <c r="A39" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:49" ht="25.15" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
+      <c r="A40" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>167</v>
+      </c>
       <c r="G40" s="26"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
@@ -15048,7 +15120,7 @@
       <c r="D1" s="50"/>
       <c r="E1" s="51"/>
       <c r="F1" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -15069,7 +15141,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>4</v>
@@ -15084,7 +15156,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -15106,7 +15178,7 @@
       <c r="H3" s="58"/>
       <c r="I3" s="56"/>
       <c r="J3" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
@@ -15128,7 +15200,7 @@
       <c r="H4" s="58"/>
       <c r="I4" s="56"/>
       <c r="J4" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -15150,7 +15222,7 @@
   <sheetData>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="60">
         <v>42370</v>
@@ -15182,7 +15254,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -15214,7 +15286,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -15246,7 +15318,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6">
         <f>SUM(C4:C5)</f>

--- a/doc/04.Schedule/工作计划.xlsx
+++ b/doc/04.Schedule/工作计划.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AT$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="176">
   <si>
     <t>提示：点上面加号可以展开计划审核明细</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -430,9 +430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>虚拟交易记录写入系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -621,11 +618,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>报屏系统</t>
+    <t>对帐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现有报屏系统优化</t>
+    <t>日、周、月 对帐流程说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林福生、王海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -633,22 +634,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对帐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日、周、月 对帐流程说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林福生、王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>账号、人员、股票 固定格式报表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -768,6 +753,51 @@
   </si>
   <si>
     <t>账户信息表增加字段，开户收在地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林福生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>股票投资决策模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策申请审批流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策收益计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易计划单/决策及收益相关报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结（账户【交割单】，股票【当日委托】，个人【当日委托】）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各相关报表关联月结单计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1522,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW314"/>
+  <dimension ref="A1:AW313"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AV18" sqref="AV18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1638,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>4</v>
@@ -1653,7 +1683,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="14" t="s">
@@ -1772,7 +1802,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="53" t="s">
         <v>47</v>
@@ -1794,7 +1824,7 @@
     </row>
     <row r="4" spans="1:49" ht="25.15" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
@@ -1806,7 +1836,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>76</v>
@@ -1826,7 +1856,7 @@
     </row>
     <row r="5" spans="1:49" ht="25.15" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>44</v>
@@ -1838,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>66</v>
@@ -1872,7 +1902,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>64</v>
@@ -1906,10 +1936,10 @@
         <v>68</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="58">
@@ -1938,10 +1968,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="58">
@@ -1970,7 +2000,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>73</v>
@@ -2037,10 +2067,10 @@
         <v>68</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>110</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="58">
@@ -2069,10 +2099,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="58">
@@ -2098,13 +2128,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>116</v>
-      </c>
       <c r="F12" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="58">
@@ -2114,7 +2144,7 @@
         <v>42623</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -2133,10 +2163,10 @@
         <v>68</v>
       </c>
       <c r="E13" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>121</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="58">
@@ -2146,7 +2176,7 @@
         <v>42624</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -2165,10 +2195,10 @@
         <v>68</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="58">
@@ -2197,10 +2227,10 @@
         <v>68</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="58">
@@ -2229,16 +2259,18 @@
         <v>69</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="55" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="26"/>
-      <c r="H16" s="56">
+      <c r="H16" s="58">
         <v>42634</v>
       </c>
-      <c r="I16" s="27"/>
+      <c r="I16" s="56">
+        <v>42641</v>
+      </c>
       <c r="J16" s="24" t="s">
         <v>71</v>
       </c>
@@ -2289,21 +2321,23 @@
         <v>46</v>
       </c>
       <c r="D17" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="56">
         <v>42633</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="56">
+        <v>42633</v>
+      </c>
       <c r="J17" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -2319,13 +2353,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="56">
@@ -2333,14 +2367,14 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" ht="25.15" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>44</v>
@@ -2349,21 +2383,23 @@
         <v>46</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>129</v>
+        <v>98</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G19" s="26"/>
-      <c r="H19" s="56">
-        <v>42636</v>
-      </c>
-      <c r="I19" s="27"/>
+      <c r="H19" s="58">
+        <v>42640</v>
+      </c>
+      <c r="I19" s="56">
+        <v>42642</v>
+      </c>
       <c r="J19" s="24" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
@@ -2379,17 +2415,17 @@
         <v>46</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="56">
-        <v>42640</v>
+        <v>42655</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="24" t="s">
@@ -2409,21 +2445,23 @@
         <v>46</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="56">
-        <v>42655</v>
-      </c>
-      <c r="I21" s="27"/>
+        <v>42633</v>
+      </c>
+      <c r="I21" s="56">
+        <v>42633</v>
+      </c>
       <c r="J21" s="24" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
@@ -2439,28 +2477,28 @@
         <v>46</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="56">
-        <v>42633</v>
+        <v>42637</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="24" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" ht="25.15" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>44</v>
@@ -2472,18 +2510,18 @@
         <v>68</v>
       </c>
       <c r="E23" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>132</v>
-      </c>
       <c r="G23" s="26"/>
-      <c r="H23" s="56">
-        <v>42637</v>
+      <c r="H23" s="61">
+        <v>42657</v>
       </c>
       <c r="I23" s="27"/>
       <c r="J23" s="24" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
@@ -2502,15 +2540,13 @@
         <v>68</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G24" s="26"/>
-      <c r="H24" s="61">
-        <v>42657</v>
-      </c>
+      <c r="H24" s="62"/>
       <c r="I24" s="27"/>
       <c r="J24" s="24" t="s">
         <v>71</v>
@@ -2520,7 +2556,7 @@
     </row>
     <row r="25" spans="1:12" ht="25.15" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>44</v>
@@ -2532,13 +2568,17 @@
         <v>68</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F25" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="62"/>
+      <c r="H25" s="56">
+        <v>42660</v>
+      </c>
       <c r="I25" s="27"/>
       <c r="J25" s="24" t="s">
         <v>71</v>
@@ -2546,7 +2586,7 @@
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="1:12" ht="25.15" customHeight="1">
+    <row r="26" spans="1:12" ht="29.25" customHeight="1">
       <c r="A26" s="23" t="s">
         <v>113</v>
       </c>
@@ -2560,16 +2600,16 @@
         <v>68</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H26" s="56">
-        <v>42660</v>
+        <v>42663</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="24" t="s">
@@ -2578,9 +2618,9 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="1:12" ht="29.25" customHeight="1">
+    <row r="27" spans="1:12" ht="25.15" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>44</v>
@@ -2589,19 +2629,19 @@
         <v>46</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="H27" s="56">
-        <v>42663</v>
+        <v>42671</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="24" t="s">
@@ -2612,7 +2652,7 @@
     </row>
     <row r="28" spans="1:12" ht="25.15" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>44</v>
@@ -2624,27 +2664,25 @@
         <v>69</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="56">
-        <v>42671</v>
+        <v>103</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="58">
+        <v>42660</v>
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="24" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="25.15" customHeight="1">
       <c r="A29" s="23" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>44</v>
@@ -2656,25 +2694,25 @@
         <v>69</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="56">
-        <v>42660</v>
+        <v>42685</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="24" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="25.15" customHeight="1">
       <c r="A30" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>44</v>
@@ -2686,25 +2724,25 @@
         <v>69</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="56">
-        <v>42685</v>
+      <c r="H30" s="58">
+        <v>42643</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="24" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:12" ht="25.15" customHeight="1">
       <c r="A31" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>44</v>
@@ -2716,25 +2754,25 @@
         <v>69</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F31" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="56">
-        <v>42643</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="24" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="25.15" customHeight="1">
       <c r="A32" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>44</v>
@@ -2749,13 +2787,13 @@
         <v>101</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="24" t="s">
         <v>71</v>
       </c>
@@ -2764,7 +2802,7 @@
     </row>
     <row r="33" spans="1:49" ht="25.15" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>44</v>
@@ -2778,12 +2816,10 @@
       <c r="E33" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>56</v>
-      </c>
+      <c r="F33" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="26"/>
       <c r="H33" s="27"/>
       <c r="I33" s="34"/>
       <c r="J33" s="24" t="s">
@@ -2794,7 +2830,7 @@
     </row>
     <row r="34" spans="1:49" ht="25.15" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>44</v>
@@ -2806,23 +2842,23 @@
         <v>69</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="34"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="24" t="s">
         <v>71</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:49" ht="25.15" customHeight="1">
+    <row r="35" spans="1:49" ht="27.75" customHeight="1">
       <c r="A35" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>44</v>
@@ -2834,13 +2870,15 @@
         <v>69</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="59"/>
       <c r="I35" s="27"/>
       <c r="J35" s="24" t="s">
         <v>71</v>
@@ -2848,9 +2886,9 @@
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:49" ht="27.75" customHeight="1">
+    <row r="36" spans="1:49" ht="25.15" customHeight="1">
       <c r="A36" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>44</v>
@@ -2862,15 +2900,13 @@
         <v>69</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="59"/>
+        <v>96</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="56"/>
       <c r="I36" s="27"/>
       <c r="J36" s="24" t="s">
         <v>71</v>
@@ -2880,7 +2916,7 @@
     </row>
     <row r="37" spans="1:49" ht="25.15" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B37" s="33" t="s">
         <v>44</v>
@@ -2889,13 +2925,13 @@
         <v>46</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>53</v>
+        <v>155</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="56"/>
@@ -2908,7 +2944,7 @@
     </row>
     <row r="38" spans="1:49" ht="25.15" customHeight="1">
       <c r="A38" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>44</v>
@@ -2920,23 +2956,23 @@
         <v>68</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G38" s="26"/>
       <c r="H38" s="56"/>
       <c r="I38" s="27"/>
       <c r="J38" s="24" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:49" ht="25.15" customHeight="1">
       <c r="A39" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>44</v>
@@ -2948,23 +2984,23 @@
         <v>68</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G39" s="26"/>
-      <c r="H39" s="56"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="24" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:49" ht="25.15" customHeight="1">
       <c r="A40" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="33" t="s">
         <v>44</v>
@@ -2976,12 +3012,14 @@
         <v>68</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>169</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="24" t="s">
@@ -2990,111 +3028,91 @@
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+    <row r="41" spans="1:49" ht="25.15" customHeight="1">
+      <c r="A41" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="29"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
-      <c r="AU41" s="30"/>
-      <c r="AV41" s="30"/>
-      <c r="AW41" s="30"/>
-    </row>
-    <row r="42" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+    </row>
+    <row r="42" spans="1:49" ht="25.15" customHeight="1">
+      <c r="A42" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>171</v>
+      </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="29"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="30"/>
-      <c r="AN42" s="30"/>
-      <c r="AO42" s="30"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
-      <c r="AU42" s="30"/>
-      <c r="AV42" s="30"/>
-      <c r="AW42" s="30"/>
     </row>
     <row r="43" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
+      <c r="A43" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>173</v>
+      </c>
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
       <c r="N43" s="29"/>
@@ -3132,16 +3150,30 @@
       <c r="AW43" s="30"/>
     </row>
     <row r="44" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
+      <c r="A44" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="24"/>
+      <c r="J44" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
       <c r="N44" s="29"/>
@@ -3838,15 +3870,15 @@
     </row>
     <row r="59" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A59" s="23"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="24"/>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="24"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="N59" s="29"/>
@@ -3885,9 +3917,9 @@
     </row>
     <row r="60" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
@@ -3932,15 +3964,15 @@
     </row>
     <row r="61" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A61" s="23"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="25"/>
       <c r="G61" s="26"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="N61" s="29"/>
@@ -3979,9 +4011,9 @@
     </row>
     <row r="62" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
@@ -4310,7 +4342,7 @@
       <c r="A69" s="23"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
@@ -4357,14 +4389,14 @@
       <c r="A70" s="23"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="24"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="24"/>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="24"/>
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
@@ -6000,9 +6032,9 @@
     </row>
     <row r="105" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A105" s="23"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="24"/>
       <c r="F105" s="25"/>
       <c r="G105" s="26"/>
@@ -6047,9 +6079,9 @@
     </row>
     <row r="106" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A106" s="23"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="25"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="24"/>
       <c r="F106" s="25"/>
       <c r="G106" s="26"/>
@@ -6094,9 +6126,9 @@
     </row>
     <row r="107" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A107" s="23"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="36"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="24"/>
       <c r="F107" s="25"/>
       <c r="G107" s="26"/>
@@ -6141,9 +6173,9 @@
     </row>
     <row r="108" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A108" s="23"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="25"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="24"/>
       <c r="F108" s="25"/>
       <c r="G108" s="26"/>
@@ -9523,7 +9555,7 @@
       <c r="AV179" s="30"/>
       <c r="AW179" s="30"/>
     </row>
-    <row r="180" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
+    <row r="180" spans="1:49" ht="25.15" customHeight="1">
       <c r="A180" s="23"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -9536,45 +9568,12 @@
       <c r="J180" s="24"/>
       <c r="K180" s="37"/>
       <c r="L180" s="24"/>
-      <c r="N180" s="29"/>
-      <c r="O180" s="30"/>
-      <c r="P180" s="30"/>
-      <c r="Q180" s="30"/>
-      <c r="R180" s="30"/>
-      <c r="S180" s="30"/>
-      <c r="T180" s="30"/>
-      <c r="V180" s="30"/>
-      <c r="W180" s="29"/>
-      <c r="Z180" s="31"/>
-      <c r="AA180" s="31"/>
-      <c r="AB180" s="31"/>
-      <c r="AC180" s="31"/>
-      <c r="AD180" s="31"/>
-      <c r="AE180" s="31"/>
-      <c r="AF180" s="31"/>
-      <c r="AG180" s="31"/>
-      <c r="AH180" s="31"/>
-      <c r="AI180" s="31"/>
-      <c r="AJ180" s="31"/>
-      <c r="AK180" s="31"/>
-      <c r="AL180" s="31"/>
-      <c r="AM180" s="30"/>
-      <c r="AN180" s="30"/>
-      <c r="AO180" s="30"/>
-      <c r="AP180" s="30"/>
-      <c r="AQ180" s="30"/>
-      <c r="AR180" s="30"/>
-      <c r="AS180" s="30"/>
-      <c r="AT180" s="30"/>
-      <c r="AU180" s="30"/>
-      <c r="AV180" s="30"/>
-      <c r="AW180" s="30"/>
     </row>
     <row r="181" spans="1:49" ht="25.15" customHeight="1">
       <c r="A181" s="23"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="36"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
       <c r="E181" s="24"/>
       <c r="F181" s="25"/>
       <c r="G181" s="26"/>
@@ -9586,9 +9585,9 @@
     </row>
     <row r="182" spans="1:49" ht="25.15" customHeight="1">
       <c r="A182" s="23"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24"/>
-      <c r="D182" s="24"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
       <c r="E182" s="24"/>
       <c r="F182" s="25"/>
       <c r="G182" s="26"/>
@@ -9600,9 +9599,9 @@
     </row>
     <row r="183" spans="1:49" ht="25.15" customHeight="1">
       <c r="A183" s="23"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
       <c r="E183" s="24"/>
       <c r="F183" s="25"/>
       <c r="G183" s="26"/>
@@ -9614,9 +9613,9 @@
     </row>
     <row r="184" spans="1:49" ht="25.15" customHeight="1">
       <c r="A184" s="23"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="24"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="35"/>
       <c r="E184" s="24"/>
       <c r="F184" s="25"/>
       <c r="G184" s="26"/>
@@ -9658,7 +9657,7 @@
       <c r="A187" s="23"/>
       <c r="B187" s="35"/>
       <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
+      <c r="D187" s="24"/>
       <c r="E187" s="24"/>
       <c r="F187" s="25"/>
       <c r="G187" s="26"/>
@@ -9667,6 +9666,30 @@
       <c r="J187" s="24"/>
       <c r="K187" s="37"/>
       <c r="L187" s="24"/>
+      <c r="M187" s="38"/>
+      <c r="N187" s="39"/>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40"/>
+      <c r="R187" s="40"/>
+      <c r="S187" s="40"/>
+      <c r="T187" s="40"/>
+      <c r="U187" s="38"/>
+      <c r="V187" s="40"/>
+      <c r="W187" s="39"/>
+      <c r="X187" s="38"/>
+      <c r="Y187" s="38"/>
+      <c r="Z187" s="41"/>
+      <c r="AA187" s="41"/>
+      <c r="AB187" s="41"/>
+      <c r="AC187" s="41"/>
+      <c r="AD187" s="41"/>
+      <c r="AE187" s="41"/>
+      <c r="AF187" s="41"/>
+      <c r="AG187" s="41"/>
+      <c r="AH187" s="41"/>
+      <c r="AI187" s="41"/>
+      <c r="AJ187" s="41"/>
     </row>
     <row r="188" spans="1:49" ht="25.15" customHeight="1">
       <c r="A188" s="23"/>
@@ -9681,35 +9704,11 @@
       <c r="J188" s="24"/>
       <c r="K188" s="37"/>
       <c r="L188" s="24"/>
-      <c r="M188" s="38"/>
-      <c r="N188" s="39"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="40"/>
-      <c r="S188" s="40"/>
-      <c r="T188" s="40"/>
-      <c r="U188" s="38"/>
-      <c r="V188" s="40"/>
-      <c r="W188" s="39"/>
-      <c r="X188" s="38"/>
-      <c r="Y188" s="38"/>
-      <c r="Z188" s="41"/>
-      <c r="AA188" s="41"/>
-      <c r="AB188" s="41"/>
-      <c r="AC188" s="41"/>
-      <c r="AD188" s="41"/>
-      <c r="AE188" s="41"/>
-      <c r="AF188" s="41"/>
-      <c r="AG188" s="41"/>
-      <c r="AH188" s="41"/>
-      <c r="AI188" s="41"/>
-      <c r="AJ188" s="41"/>
     </row>
     <row r="189" spans="1:49" ht="25.15" customHeight="1">
       <c r="A189" s="23"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="35"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
       <c r="F189" s="25"/>
@@ -9722,9 +9721,9 @@
     </row>
     <row r="190" spans="1:49" ht="25.15" customHeight="1">
       <c r="A190" s="23"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="35"/>
       <c r="E190" s="24"/>
       <c r="F190" s="25"/>
       <c r="G190" s="26"/>
@@ -9736,15 +9735,15 @@
     </row>
     <row r="191" spans="1:49" ht="25.15" customHeight="1">
       <c r="A191" s="23"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="25"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="47"/>
+      <c r="F191" s="42"/>
       <c r="G191" s="26"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="24"/>
+      <c r="J191" s="27"/>
       <c r="K191" s="37"/>
       <c r="L191" s="24"/>
     </row>
@@ -9776,7 +9775,7 @@
       <c r="K193" s="37"/>
       <c r="L193" s="24"/>
     </row>
-    <row r="194" spans="1:49" ht="25.15" customHeight="1">
+    <row r="194" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
       <c r="A194" s="23"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -9789,6 +9788,30 @@
       <c r="J194" s="27"/>
       <c r="K194" s="37"/>
       <c r="L194" s="24"/>
+      <c r="M194" s="28"/>
+      <c r="N194" s="29"/>
+      <c r="O194" s="30"/>
+      <c r="P194" s="30"/>
+      <c r="Q194" s="30"/>
+      <c r="R194" s="30"/>
+      <c r="S194" s="30"/>
+      <c r="T194" s="30"/>
+      <c r="U194" s="28"/>
+      <c r="V194" s="30"/>
+      <c r="W194" s="29"/>
+      <c r="X194" s="28"/>
+      <c r="Y194" s="28"/>
+      <c r="AM194" s="30"/>
+      <c r="AN194" s="30"/>
+      <c r="AO194" s="30"/>
+      <c r="AP194" s="30"/>
+      <c r="AQ194" s="30"/>
+      <c r="AR194" s="30"/>
+      <c r="AS194" s="30"/>
+      <c r="AT194" s="30"/>
+      <c r="AU194" s="30"/>
+      <c r="AV194" s="30"/>
+      <c r="AW194" s="30"/>
     </row>
     <row r="195" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
       <c r="A195" s="23"/>
@@ -9871,12 +9894,12 @@
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
       <c r="D197" s="36"/>
-      <c r="E197" s="47"/>
-      <c r="F197" s="42"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="25"/>
       <c r="G197" s="26"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="27"/>
+      <c r="J197" s="24"/>
       <c r="K197" s="37"/>
       <c r="L197" s="24"/>
       <c r="M197" s="28"/>
@@ -10057,10 +10080,10 @@
       <c r="AW201" s="30"/>
     </row>
     <row r="202" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A202" s="23"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="36"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="25"/>
       <c r="E202" s="24"/>
       <c r="F202" s="25"/>
       <c r="G202" s="26"/>
@@ -10098,7 +10121,7 @@
       <c r="A203" s="43"/>
       <c r="B203" s="35"/>
       <c r="C203" s="35"/>
-      <c r="D203" s="25"/>
+      <c r="D203" s="36"/>
       <c r="E203" s="24"/>
       <c r="F203" s="25"/>
       <c r="G203" s="26"/>
@@ -10174,7 +10197,7 @@
       <c r="A205" s="43"/>
       <c r="B205" s="35"/>
       <c r="C205" s="35"/>
-      <c r="D205" s="36"/>
+      <c r="D205" s="25"/>
       <c r="E205" s="24"/>
       <c r="F205" s="25"/>
       <c r="G205" s="26"/>
@@ -10288,7 +10311,7 @@
       <c r="A208" s="43"/>
       <c r="B208" s="35"/>
       <c r="C208" s="35"/>
-      <c r="D208" s="25"/>
+      <c r="D208" s="36"/>
       <c r="E208" s="24"/>
       <c r="F208" s="25"/>
       <c r="G208" s="26"/>
@@ -10589,16 +10612,16 @@
       <c r="AW215" s="30"/>
     </row>
     <row r="216" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A216" s="43"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="35"/>
-      <c r="D216" s="36"/>
+      <c r="A216" s="27"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="25"/>
       <c r="E216" s="24"/>
       <c r="F216" s="25"/>
       <c r="G216" s="26"/>
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
-      <c r="J216" s="24"/>
+      <c r="J216" s="27"/>
       <c r="K216" s="37"/>
       <c r="L216" s="24"/>
       <c r="M216" s="28"/>
@@ -10630,7 +10653,7 @@
       <c r="A217" s="27"/>
       <c r="B217" s="33"/>
       <c r="C217" s="33"/>
-      <c r="D217" s="25"/>
+      <c r="D217" s="36"/>
       <c r="E217" s="24"/>
       <c r="F217" s="25"/>
       <c r="G217" s="26"/>
@@ -10968,7 +10991,7 @@
       <c r="AV225" s="30"/>
       <c r="AW225" s="30"/>
     </row>
-    <row r="226" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
+    <row r="226" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A226" s="27"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -10981,7 +11004,6 @@
       <c r="J226" s="27"/>
       <c r="K226" s="37"/>
       <c r="L226" s="24"/>
-      <c r="M226" s="28"/>
       <c r="N226" s="29"/>
       <c r="O226" s="30"/>
       <c r="P226" s="30"/>
@@ -10989,11 +11011,21 @@
       <c r="R226" s="30"/>
       <c r="S226" s="30"/>
       <c r="T226" s="30"/>
-      <c r="U226" s="28"/>
       <c r="V226" s="30"/>
       <c r="W226" s="29"/>
-      <c r="X226" s="28"/>
-      <c r="Y226" s="28"/>
+      <c r="Z226" s="31"/>
+      <c r="AA226" s="31"/>
+      <c r="AB226" s="31"/>
+      <c r="AC226" s="31"/>
+      <c r="AD226" s="31"/>
+      <c r="AE226" s="31"/>
+      <c r="AF226" s="31"/>
+      <c r="AG226" s="31"/>
+      <c r="AH226" s="31"/>
+      <c r="AI226" s="31"/>
+      <c r="AJ226" s="31"/>
+      <c r="AK226" s="31"/>
+      <c r="AL226" s="31"/>
       <c r="AM226" s="30"/>
       <c r="AN226" s="30"/>
       <c r="AO226" s="30"/>
@@ -11292,7 +11324,7 @@
       <c r="A233" s="27"/>
       <c r="B233" s="33"/>
       <c r="C233" s="33"/>
-      <c r="D233" s="36"/>
+      <c r="D233" s="25"/>
       <c r="E233" s="24"/>
       <c r="F233" s="25"/>
       <c r="G233" s="26"/>
@@ -11339,7 +11371,7 @@
       <c r="A234" s="27"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
-      <c r="D234" s="25"/>
+      <c r="D234" s="36"/>
       <c r="E234" s="24"/>
       <c r="F234" s="25"/>
       <c r="G234" s="26"/>
@@ -11480,7 +11512,7 @@
       <c r="A237" s="27"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
-      <c r="D237" s="36"/>
+      <c r="D237" s="25"/>
       <c r="E237" s="24"/>
       <c r="F237" s="25"/>
       <c r="G237" s="26"/>
@@ -11621,7 +11653,7 @@
       <c r="A240" s="27"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
-      <c r="D240" s="25"/>
+      <c r="D240" s="36"/>
       <c r="E240" s="24"/>
       <c r="F240" s="25"/>
       <c r="G240" s="26"/>
@@ -11997,7 +12029,7 @@
       <c r="A248" s="27"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
-      <c r="D248" s="36"/>
+      <c r="D248" s="25"/>
       <c r="E248" s="24"/>
       <c r="F248" s="25"/>
       <c r="G248" s="26"/>
@@ -12467,7 +12499,7 @@
       <c r="A258" s="27"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
-      <c r="D258" s="25"/>
+      <c r="D258" s="36"/>
       <c r="E258" s="24"/>
       <c r="F258" s="25"/>
       <c r="G258" s="26"/>
@@ -12608,7 +12640,7 @@
       <c r="A261" s="27"/>
       <c r="B261" s="33"/>
       <c r="C261" s="33"/>
-      <c r="D261" s="36"/>
+      <c r="D261" s="25"/>
       <c r="E261" s="24"/>
       <c r="F261" s="25"/>
       <c r="G261" s="26"/>
@@ -12655,7 +12687,7 @@
       <c r="A262" s="27"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
-      <c r="D262" s="25"/>
+      <c r="D262" s="36"/>
       <c r="E262" s="24"/>
       <c r="F262" s="25"/>
       <c r="G262" s="26"/>
@@ -12702,7 +12734,7 @@
       <c r="A263" s="27"/>
       <c r="B263" s="33"/>
       <c r="C263" s="33"/>
-      <c r="D263" s="36"/>
+      <c r="D263" s="25"/>
       <c r="E263" s="24"/>
       <c r="F263" s="25"/>
       <c r="G263" s="26"/>
@@ -12749,7 +12781,7 @@
       <c r="A264" s="27"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
-      <c r="D264" s="25"/>
+      <c r="D264" s="36"/>
       <c r="E264" s="24"/>
       <c r="F264" s="25"/>
       <c r="G264" s="26"/>
@@ -13078,7 +13110,7 @@
       <c r="A271" s="27"/>
       <c r="B271" s="33"/>
       <c r="C271" s="33"/>
-      <c r="D271" s="36"/>
+      <c r="D271" s="25"/>
       <c r="E271" s="24"/>
       <c r="F271" s="25"/>
       <c r="G271" s="26"/>
@@ -13125,7 +13157,7 @@
       <c r="A272" s="27"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
-      <c r="D272" s="25"/>
+      <c r="D272" s="36"/>
       <c r="E272" s="24"/>
       <c r="F272" s="25"/>
       <c r="G272" s="26"/>
@@ -13266,7 +13298,7 @@
       <c r="A275" s="27"/>
       <c r="B275" s="33"/>
       <c r="C275" s="33"/>
-      <c r="D275" s="36"/>
+      <c r="D275" s="25"/>
       <c r="E275" s="24"/>
       <c r="F275" s="25"/>
       <c r="G275" s="26"/>
@@ -13313,7 +13345,7 @@
       <c r="A276" s="27"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
-      <c r="D276" s="25"/>
+      <c r="D276" s="36"/>
       <c r="E276" s="24"/>
       <c r="F276" s="25"/>
       <c r="G276" s="26"/>
@@ -13548,7 +13580,7 @@
       <c r="A281" s="27"/>
       <c r="B281" s="33"/>
       <c r="C281" s="33"/>
-      <c r="D281" s="36"/>
+      <c r="D281" s="25"/>
       <c r="E281" s="24"/>
       <c r="F281" s="25"/>
       <c r="G281" s="26"/>
@@ -13595,7 +13627,7 @@
       <c r="A282" s="27"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
-      <c r="D282" s="25"/>
+      <c r="D282" s="36"/>
       <c r="E282" s="24"/>
       <c r="F282" s="25"/>
       <c r="G282" s="26"/>
@@ -13830,7 +13862,7 @@
       <c r="A287" s="27"/>
       <c r="B287" s="33"/>
       <c r="C287" s="33"/>
-      <c r="D287" s="36"/>
+      <c r="D287" s="25"/>
       <c r="E287" s="24"/>
       <c r="F287" s="25"/>
       <c r="G287" s="26"/>
@@ -13877,7 +13909,7 @@
       <c r="A288" s="27"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
-      <c r="D288" s="25"/>
+      <c r="D288" s="36"/>
       <c r="E288" s="24"/>
       <c r="F288" s="25"/>
       <c r="G288" s="26"/>
@@ -14112,7 +14144,7 @@
       <c r="A293" s="27"/>
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
-      <c r="D293" s="36"/>
+      <c r="D293" s="25"/>
       <c r="E293" s="24"/>
       <c r="F293" s="25"/>
       <c r="G293" s="26"/>
@@ -14159,7 +14191,7 @@
       <c r="A294" s="27"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
-      <c r="D294" s="25"/>
+      <c r="D294" s="36"/>
       <c r="E294" s="24"/>
       <c r="F294" s="25"/>
       <c r="G294" s="26"/>
@@ -14250,7 +14282,7 @@
       <c r="AW295" s="30"/>
     </row>
     <row r="296" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A296" s="27"/>
+      <c r="A296" s="23"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
       <c r="D296" s="36"/>
@@ -14394,7 +14426,7 @@
       <c r="A299" s="23"/>
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
-      <c r="D299" s="36"/>
+      <c r="D299" s="25"/>
       <c r="E299" s="24"/>
       <c r="F299" s="25"/>
       <c r="G299" s="26"/>
@@ -14441,7 +14473,7 @@
       <c r="A300" s="23"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
-      <c r="D300" s="25"/>
+      <c r="D300" s="36"/>
       <c r="E300" s="24"/>
       <c r="F300" s="25"/>
       <c r="G300" s="26"/>
@@ -14535,7 +14567,7 @@
       <c r="A302" s="23"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
-      <c r="D302" s="36"/>
+      <c r="D302" s="25"/>
       <c r="E302" s="24"/>
       <c r="F302" s="25"/>
       <c r="G302" s="26"/>
@@ -14629,7 +14661,7 @@
       <c r="A304" s="23"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
-      <c r="D304" s="25"/>
+      <c r="D304" s="36"/>
       <c r="E304" s="24"/>
       <c r="F304" s="25"/>
       <c r="G304" s="26"/>
@@ -14815,15 +14847,15 @@
     </row>
     <row r="308" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A308" s="23"/>
-      <c r="B308" s="33"/>
-      <c r="C308" s="33"/>
-      <c r="D308" s="36"/>
+      <c r="B308" s="24"/>
+      <c r="C308" s="24"/>
+      <c r="D308" s="25"/>
       <c r="E308" s="24"/>
       <c r="F308" s="25"/>
       <c r="G308" s="26"/>
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
-      <c r="J308" s="27"/>
+      <c r="J308" s="24"/>
       <c r="K308" s="37"/>
       <c r="L308" s="24"/>
       <c r="N308" s="29"/>
@@ -15001,7 +15033,7 @@
       <c r="AV311" s="30"/>
       <c r="AW311" s="30"/>
     </row>
-    <row r="312" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
+    <row r="312" spans="1:49">
       <c r="A312" s="23"/>
       <c r="B312" s="24"/>
       <c r="C312" s="24"/>
@@ -15012,41 +15044,6 @@
       <c r="H312" s="27"/>
       <c r="I312" s="27"/>
       <c r="J312" s="24"/>
-      <c r="K312" s="37"/>
-      <c r="L312" s="24"/>
-      <c r="N312" s="29"/>
-      <c r="O312" s="30"/>
-      <c r="P312" s="30"/>
-      <c r="Q312" s="30"/>
-      <c r="R312" s="30"/>
-      <c r="S312" s="30"/>
-      <c r="T312" s="30"/>
-      <c r="V312" s="30"/>
-      <c r="W312" s="29"/>
-      <c r="Z312" s="31"/>
-      <c r="AA312" s="31"/>
-      <c r="AB312" s="31"/>
-      <c r="AC312" s="31"/>
-      <c r="AD312" s="31"/>
-      <c r="AE312" s="31"/>
-      <c r="AF312" s="31"/>
-      <c r="AG312" s="31"/>
-      <c r="AH312" s="31"/>
-      <c r="AI312" s="31"/>
-      <c r="AJ312" s="31"/>
-      <c r="AK312" s="31"/>
-      <c r="AL312" s="31"/>
-      <c r="AM312" s="30"/>
-      <c r="AN312" s="30"/>
-      <c r="AO312" s="30"/>
-      <c r="AP312" s="30"/>
-      <c r="AQ312" s="30"/>
-      <c r="AR312" s="30"/>
-      <c r="AS312" s="30"/>
-      <c r="AT312" s="30"/>
-      <c r="AU312" s="30"/>
-      <c r="AV312" s="30"/>
-      <c r="AW312" s="30"/>
     </row>
     <row r="313" spans="1:49">
       <c r="A313" s="23"/>
@@ -15060,26 +15057,14 @@
       <c r="I313" s="27"/>
       <c r="J313" s="24"/>
     </row>
-    <row r="314" spans="1:49">
-      <c r="A314" s="23"/>
-      <c r="B314" s="24"/>
-      <c r="C314" s="24"/>
-      <c r="D314" s="25"/>
-      <c r="E314" s="24"/>
-      <c r="F314" s="25"/>
-      <c r="G314" s="26"/>
-      <c r="H314" s="27"/>
-      <c r="I314" s="27"/>
-      <c r="J314" s="24"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:AT2"/>
   <mergeCells count="1">
-    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="F197">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="F196">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>
@@ -15120,7 +15105,7 @@
       <c r="D1" s="50"/>
       <c r="E1" s="51"/>
       <c r="F1" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -15141,7 +15126,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>4</v>
@@ -15156,7 +15141,7 @@
         <v>49</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -15178,12 +15163,12 @@
       <c r="H3" s="58"/>
       <c r="I3" s="56"/>
       <c r="J3" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
@@ -15200,7 +15185,7 @@
       <c r="H4" s="58"/>
       <c r="I4" s="56"/>
       <c r="J4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -15222,7 +15207,7 @@
   <sheetData>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="60">
         <v>42370</v>
@@ -15254,7 +15239,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -15286,7 +15271,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C5">
         <v>678</v>
@@ -15318,7 +15303,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6">
         <f>SUM(C4:C5)</f>

--- a/doc/04.Schedule/工作计划.xlsx
+++ b/doc/04.Schedule/工作计划.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AT$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="182">
   <si>
     <t>提示：点上面加号可以展开计划审核明细</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -785,20 +785,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>月结（账户【交割单】，股票【当日委托】，个人【当日委托】）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>各相关报表关联月结单计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘趋势预测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘个股分析模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策申请审批流程：申请单投票完成后，准确率预测，实际买卖记录关联，决策申请单分类显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW313"/>
+  <dimension ref="A1:AW314"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -3088,9 +3107,9 @@
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
+    <row r="43" spans="1:49" ht="50.25" customHeight="1">
       <c r="A43" s="23" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B43" s="33" t="s">
         <v>44</v>
@@ -3105,9 +3124,11 @@
         <v>155</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="24" t="s">
@@ -3115,43 +3136,10 @@
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="29"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
-      <c r="AU43" s="30"/>
-      <c r="AV43" s="30"/>
-      <c r="AW43" s="30"/>
     </row>
     <row r="44" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A44" s="23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>44</v>
@@ -3166,7 +3154,7 @@
         <v>155</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
@@ -3211,16 +3199,30 @@
       <c r="AW44" s="30"/>
     </row>
     <row r="45" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
+      <c r="A45" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>173</v>
+      </c>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
       <c r="N45" s="29"/>
@@ -3258,12 +3260,16 @@
       <c r="AW45" s="30"/>
     </row>
     <row r="46" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23" t="s">
+        <v>180</v>
+      </c>
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
+      <c r="F46" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="G46" s="26"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
@@ -3305,12 +3311,16 @@
       <c r="AW46" s="30"/>
     </row>
     <row r="47" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23" t="s">
+        <v>181</v>
+      </c>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
+      <c r="F47" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="G47" s="26"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
@@ -3870,15 +3880,15 @@
     </row>
     <row r="59" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="24"/>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
       <c r="N59" s="29"/>
@@ -3917,9 +3927,9 @@
     </row>
     <row r="60" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A60" s="23"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="36"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="24"/>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
@@ -3964,15 +3974,15 @@
     </row>
     <row r="61" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="24"/>
       <c r="F61" s="25"/>
       <c r="G61" s="26"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="27"/>
       <c r="K61" s="24"/>
       <c r="L61" s="24"/>
       <c r="N61" s="29"/>
@@ -4011,9 +4021,9 @@
     </row>
     <row r="62" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A62" s="23"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
@@ -4342,7 +4352,7 @@
       <c r="A69" s="23"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
-      <c r="D69" s="24"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="24"/>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
@@ -4389,14 +4399,14 @@
       <c r="A70" s="23"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="24"/>
-      <c r="K70" s="37"/>
+      <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="N70" s="29"/>
       <c r="O70" s="30"/>
@@ -6032,9 +6042,9 @@
     </row>
     <row r="105" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A105" s="23"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
       <c r="E105" s="24"/>
       <c r="F105" s="25"/>
       <c r="G105" s="26"/>
@@ -6079,9 +6089,9 @@
     </row>
     <row r="106" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A106" s="23"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="36"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="24"/>
       <c r="F106" s="25"/>
       <c r="G106" s="26"/>
@@ -6126,9 +6136,9 @@
     </row>
     <row r="107" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="25"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="24"/>
       <c r="F107" s="25"/>
       <c r="G107" s="26"/>
@@ -6173,9 +6183,9 @@
     </row>
     <row r="108" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A108" s="23"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="36"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="24"/>
       <c r="F108" s="25"/>
       <c r="G108" s="26"/>
@@ -9555,7 +9565,7 @@
       <c r="AV179" s="30"/>
       <c r="AW179" s="30"/>
     </row>
-    <row r="180" spans="1:49" ht="25.15" customHeight="1">
+    <row r="180" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A180" s="23"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -9568,12 +9578,45 @@
       <c r="J180" s="24"/>
       <c r="K180" s="37"/>
       <c r="L180" s="24"/>
+      <c r="N180" s="29"/>
+      <c r="O180" s="30"/>
+      <c r="P180" s="30"/>
+      <c r="Q180" s="30"/>
+      <c r="R180" s="30"/>
+      <c r="S180" s="30"/>
+      <c r="T180" s="30"/>
+      <c r="V180" s="30"/>
+      <c r="W180" s="29"/>
+      <c r="Z180" s="31"/>
+      <c r="AA180" s="31"/>
+      <c r="AB180" s="31"/>
+      <c r="AC180" s="31"/>
+      <c r="AD180" s="31"/>
+      <c r="AE180" s="31"/>
+      <c r="AF180" s="31"/>
+      <c r="AG180" s="31"/>
+      <c r="AH180" s="31"/>
+      <c r="AI180" s="31"/>
+      <c r="AJ180" s="31"/>
+      <c r="AK180" s="31"/>
+      <c r="AL180" s="31"/>
+      <c r="AM180" s="30"/>
+      <c r="AN180" s="30"/>
+      <c r="AO180" s="30"/>
+      <c r="AP180" s="30"/>
+      <c r="AQ180" s="30"/>
+      <c r="AR180" s="30"/>
+      <c r="AS180" s="30"/>
+      <c r="AT180" s="30"/>
+      <c r="AU180" s="30"/>
+      <c r="AV180" s="30"/>
+      <c r="AW180" s="30"/>
     </row>
     <row r="181" spans="1:49" ht="25.15" customHeight="1">
       <c r="A181" s="23"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24"/>
-      <c r="D181" s="24"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="24"/>
       <c r="F181" s="25"/>
       <c r="G181" s="26"/>
@@ -9585,9 +9628,9 @@
     </row>
     <row r="182" spans="1:49" ht="25.15" customHeight="1">
       <c r="A182" s="23"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="24"/>
       <c r="F182" s="25"/>
       <c r="G182" s="26"/>
@@ -9599,9 +9642,9 @@
     </row>
     <row r="183" spans="1:49" ht="25.15" customHeight="1">
       <c r="A183" s="23"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="24"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
       <c r="E183" s="24"/>
       <c r="F183" s="25"/>
       <c r="G183" s="26"/>
@@ -9613,9 +9656,9 @@
     </row>
     <row r="184" spans="1:49" ht="25.15" customHeight="1">
       <c r="A184" s="23"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
       <c r="E184" s="24"/>
       <c r="F184" s="25"/>
       <c r="G184" s="26"/>
@@ -9657,7 +9700,7 @@
       <c r="A187" s="23"/>
       <c r="B187" s="35"/>
       <c r="C187" s="35"/>
-      <c r="D187" s="24"/>
+      <c r="D187" s="35"/>
       <c r="E187" s="24"/>
       <c r="F187" s="25"/>
       <c r="G187" s="26"/>
@@ -9666,30 +9709,6 @@
       <c r="J187" s="24"/>
       <c r="K187" s="37"/>
       <c r="L187" s="24"/>
-      <c r="M187" s="38"/>
-      <c r="N187" s="39"/>
-      <c r="O187" s="40"/>
-      <c r="P187" s="40"/>
-      <c r="Q187" s="40"/>
-      <c r="R187" s="40"/>
-      <c r="S187" s="40"/>
-      <c r="T187" s="40"/>
-      <c r="U187" s="38"/>
-      <c r="V187" s="40"/>
-      <c r="W187" s="39"/>
-      <c r="X187" s="38"/>
-      <c r="Y187" s="38"/>
-      <c r="Z187" s="41"/>
-      <c r="AA187" s="41"/>
-      <c r="AB187" s="41"/>
-      <c r="AC187" s="41"/>
-      <c r="AD187" s="41"/>
-      <c r="AE187" s="41"/>
-      <c r="AF187" s="41"/>
-      <c r="AG187" s="41"/>
-      <c r="AH187" s="41"/>
-      <c r="AI187" s="41"/>
-      <c r="AJ187" s="41"/>
     </row>
     <row r="188" spans="1:49" ht="25.15" customHeight="1">
       <c r="A188" s="23"/>
@@ -9704,11 +9723,35 @@
       <c r="J188" s="24"/>
       <c r="K188" s="37"/>
       <c r="L188" s="24"/>
+      <c r="M188" s="38"/>
+      <c r="N188" s="39"/>
+      <c r="O188" s="40"/>
+      <c r="P188" s="40"/>
+      <c r="Q188" s="40"/>
+      <c r="R188" s="40"/>
+      <c r="S188" s="40"/>
+      <c r="T188" s="40"/>
+      <c r="U188" s="38"/>
+      <c r="V188" s="40"/>
+      <c r="W188" s="39"/>
+      <c r="X188" s="38"/>
+      <c r="Y188" s="38"/>
+      <c r="Z188" s="41"/>
+      <c r="AA188" s="41"/>
+      <c r="AB188" s="41"/>
+      <c r="AC188" s="41"/>
+      <c r="AD188" s="41"/>
+      <c r="AE188" s="41"/>
+      <c r="AF188" s="41"/>
+      <c r="AG188" s="41"/>
+      <c r="AH188" s="41"/>
+      <c r="AI188" s="41"/>
+      <c r="AJ188" s="41"/>
     </row>
     <row r="189" spans="1:49" ht="25.15" customHeight="1">
       <c r="A189" s="23"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="35"/>
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
       <c r="F189" s="25"/>
@@ -9721,9 +9764,9 @@
     </row>
     <row r="190" spans="1:49" ht="25.15" customHeight="1">
       <c r="A190" s="23"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="35"/>
-      <c r="D190" s="35"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="24"/>
       <c r="F190" s="25"/>
       <c r="G190" s="26"/>
@@ -9735,15 +9778,15 @@
     </row>
     <row r="191" spans="1:49" ht="25.15" customHeight="1">
       <c r="A191" s="23"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="42"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="25"/>
       <c r="G191" s="26"/>
       <c r="H191" s="27"/>
       <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
+      <c r="J191" s="24"/>
       <c r="K191" s="37"/>
       <c r="L191" s="24"/>
     </row>
@@ -9775,7 +9818,7 @@
       <c r="K193" s="37"/>
       <c r="L193" s="24"/>
     </row>
-    <row r="194" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
+    <row r="194" spans="1:49" ht="25.15" customHeight="1">
       <c r="A194" s="23"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -9788,30 +9831,6 @@
       <c r="J194" s="27"/>
       <c r="K194" s="37"/>
       <c r="L194" s="24"/>
-      <c r="M194" s="28"/>
-      <c r="N194" s="29"/>
-      <c r="O194" s="30"/>
-      <c r="P194" s="30"/>
-      <c r="Q194" s="30"/>
-      <c r="R194" s="30"/>
-      <c r="S194" s="30"/>
-      <c r="T194" s="30"/>
-      <c r="U194" s="28"/>
-      <c r="V194" s="30"/>
-      <c r="W194" s="29"/>
-      <c r="X194" s="28"/>
-      <c r="Y194" s="28"/>
-      <c r="AM194" s="30"/>
-      <c r="AN194" s="30"/>
-      <c r="AO194" s="30"/>
-      <c r="AP194" s="30"/>
-      <c r="AQ194" s="30"/>
-      <c r="AR194" s="30"/>
-      <c r="AS194" s="30"/>
-      <c r="AT194" s="30"/>
-      <c r="AU194" s="30"/>
-      <c r="AV194" s="30"/>
-      <c r="AW194" s="30"/>
     </row>
     <row r="195" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
       <c r="A195" s="23"/>
@@ -9894,12 +9913,12 @@
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
       <c r="D197" s="36"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="25"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="42"/>
       <c r="G197" s="26"/>
       <c r="H197" s="27"/>
       <c r="I197" s="27"/>
-      <c r="J197" s="24"/>
+      <c r="J197" s="27"/>
       <c r="K197" s="37"/>
       <c r="L197" s="24"/>
       <c r="M197" s="28"/>
@@ -10080,10 +10099,10 @@
       <c r="AW201" s="30"/>
     </row>
     <row r="202" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A202" s="43"/>
-      <c r="B202" s="35"/>
-      <c r="C202" s="35"/>
-      <c r="D202" s="25"/>
+      <c r="A202" s="23"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="36"/>
       <c r="E202" s="24"/>
       <c r="F202" s="25"/>
       <c r="G202" s="26"/>
@@ -10121,7 +10140,7 @@
       <c r="A203" s="43"/>
       <c r="B203" s="35"/>
       <c r="C203" s="35"/>
-      <c r="D203" s="36"/>
+      <c r="D203" s="25"/>
       <c r="E203" s="24"/>
       <c r="F203" s="25"/>
       <c r="G203" s="26"/>
@@ -10197,7 +10216,7 @@
       <c r="A205" s="43"/>
       <c r="B205" s="35"/>
       <c r="C205" s="35"/>
-      <c r="D205" s="25"/>
+      <c r="D205" s="36"/>
       <c r="E205" s="24"/>
       <c r="F205" s="25"/>
       <c r="G205" s="26"/>
@@ -10311,7 +10330,7 @@
       <c r="A208" s="43"/>
       <c r="B208" s="35"/>
       <c r="C208" s="35"/>
-      <c r="D208" s="36"/>
+      <c r="D208" s="25"/>
       <c r="E208" s="24"/>
       <c r="F208" s="25"/>
       <c r="G208" s="26"/>
@@ -10612,16 +10631,16 @@
       <c r="AW215" s="30"/>
     </row>
     <row r="216" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A216" s="27"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="25"/>
+      <c r="A216" s="43"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="35"/>
+      <c r="D216" s="36"/>
       <c r="E216" s="24"/>
       <c r="F216" s="25"/>
       <c r="G216" s="26"/>
       <c r="H216" s="27"/>
       <c r="I216" s="27"/>
-      <c r="J216" s="27"/>
+      <c r="J216" s="24"/>
       <c r="K216" s="37"/>
       <c r="L216" s="24"/>
       <c r="M216" s="28"/>
@@ -10653,7 +10672,7 @@
       <c r="A217" s="27"/>
       <c r="B217" s="33"/>
       <c r="C217" s="33"/>
-      <c r="D217" s="36"/>
+      <c r="D217" s="25"/>
       <c r="E217" s="24"/>
       <c r="F217" s="25"/>
       <c r="G217" s="26"/>
@@ -10991,7 +11010,7 @@
       <c r="AV225" s="30"/>
       <c r="AW225" s="30"/>
     </row>
-    <row r="226" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
+    <row r="226" spans="1:49" s="31" customFormat="1" ht="25.15" customHeight="1">
       <c r="A226" s="27"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -11004,6 +11023,7 @@
       <c r="J226" s="27"/>
       <c r="K226" s="37"/>
       <c r="L226" s="24"/>
+      <c r="M226" s="28"/>
       <c r="N226" s="29"/>
       <c r="O226" s="30"/>
       <c r="P226" s="30"/>
@@ -11011,21 +11031,11 @@
       <c r="R226" s="30"/>
       <c r="S226" s="30"/>
       <c r="T226" s="30"/>
+      <c r="U226" s="28"/>
       <c r="V226" s="30"/>
       <c r="W226" s="29"/>
-      <c r="Z226" s="31"/>
-      <c r="AA226" s="31"/>
-      <c r="AB226" s="31"/>
-      <c r="AC226" s="31"/>
-      <c r="AD226" s="31"/>
-      <c r="AE226" s="31"/>
-      <c r="AF226" s="31"/>
-      <c r="AG226" s="31"/>
-      <c r="AH226" s="31"/>
-      <c r="AI226" s="31"/>
-      <c r="AJ226" s="31"/>
-      <c r="AK226" s="31"/>
-      <c r="AL226" s="31"/>
+      <c r="X226" s="28"/>
+      <c r="Y226" s="28"/>
       <c r="AM226" s="30"/>
       <c r="AN226" s="30"/>
       <c r="AO226" s="30"/>
@@ -11324,7 +11334,7 @@
       <c r="A233" s="27"/>
       <c r="B233" s="33"/>
       <c r="C233" s="33"/>
-      <c r="D233" s="25"/>
+      <c r="D233" s="36"/>
       <c r="E233" s="24"/>
       <c r="F233" s="25"/>
       <c r="G233" s="26"/>
@@ -11371,7 +11381,7 @@
       <c r="A234" s="27"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
-      <c r="D234" s="36"/>
+      <c r="D234" s="25"/>
       <c r="E234" s="24"/>
       <c r="F234" s="25"/>
       <c r="G234" s="26"/>
@@ -11512,7 +11522,7 @@
       <c r="A237" s="27"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
-      <c r="D237" s="25"/>
+      <c r="D237" s="36"/>
       <c r="E237" s="24"/>
       <c r="F237" s="25"/>
       <c r="G237" s="26"/>
@@ -11653,7 +11663,7 @@
       <c r="A240" s="27"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
-      <c r="D240" s="36"/>
+      <c r="D240" s="25"/>
       <c r="E240" s="24"/>
       <c r="F240" s="25"/>
       <c r="G240" s="26"/>
@@ -12029,7 +12039,7 @@
       <c r="A248" s="27"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
-      <c r="D248" s="25"/>
+      <c r="D248" s="36"/>
       <c r="E248" s="24"/>
       <c r="F248" s="25"/>
       <c r="G248" s="26"/>
@@ -12499,7 +12509,7 @@
       <c r="A258" s="27"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
-      <c r="D258" s="36"/>
+      <c r="D258" s="25"/>
       <c r="E258" s="24"/>
       <c r="F258" s="25"/>
       <c r="G258" s="26"/>
@@ -12640,7 +12650,7 @@
       <c r="A261" s="27"/>
       <c r="B261" s="33"/>
       <c r="C261" s="33"/>
-      <c r="D261" s="25"/>
+      <c r="D261" s="36"/>
       <c r="E261" s="24"/>
       <c r="F261" s="25"/>
       <c r="G261" s="26"/>
@@ -12687,7 +12697,7 @@
       <c r="A262" s="27"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
-      <c r="D262" s="36"/>
+      <c r="D262" s="25"/>
       <c r="E262" s="24"/>
       <c r="F262" s="25"/>
       <c r="G262" s="26"/>
@@ -12734,7 +12744,7 @@
       <c r="A263" s="27"/>
       <c r="B263" s="33"/>
       <c r="C263" s="33"/>
-      <c r="D263" s="25"/>
+      <c r="D263" s="36"/>
       <c r="E263" s="24"/>
       <c r="F263" s="25"/>
       <c r="G263" s="26"/>
@@ -12781,7 +12791,7 @@
       <c r="A264" s="27"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
-      <c r="D264" s="36"/>
+      <c r="D264" s="25"/>
       <c r="E264" s="24"/>
       <c r="F264" s="25"/>
       <c r="G264" s="26"/>
@@ -13110,7 +13120,7 @@
       <c r="A271" s="27"/>
       <c r="B271" s="33"/>
       <c r="C271" s="33"/>
-      <c r="D271" s="25"/>
+      <c r="D271" s="36"/>
       <c r="E271" s="24"/>
       <c r="F271" s="25"/>
       <c r="G271" s="26"/>
@@ -13157,7 +13167,7 @@
       <c r="A272" s="27"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
-      <c r="D272" s="36"/>
+      <c r="D272" s="25"/>
       <c r="E272" s="24"/>
       <c r="F272" s="25"/>
       <c r="G272" s="26"/>
@@ -13298,7 +13308,7 @@
       <c r="A275" s="27"/>
       <c r="B275" s="33"/>
       <c r="C275" s="33"/>
-      <c r="D275" s="25"/>
+      <c r="D275" s="36"/>
       <c r="E275" s="24"/>
       <c r="F275" s="25"/>
       <c r="G275" s="26"/>
@@ -13345,7 +13355,7 @@
       <c r="A276" s="27"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
-      <c r="D276" s="36"/>
+      <c r="D276" s="25"/>
       <c r="E276" s="24"/>
       <c r="F276" s="25"/>
       <c r="G276" s="26"/>
@@ -13580,7 +13590,7 @@
       <c r="A281" s="27"/>
       <c r="B281" s="33"/>
       <c r="C281" s="33"/>
-      <c r="D281" s="25"/>
+      <c r="D281" s="36"/>
       <c r="E281" s="24"/>
       <c r="F281" s="25"/>
       <c r="G281" s="26"/>
@@ -13627,7 +13637,7 @@
       <c r="A282" s="27"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
-      <c r="D282" s="36"/>
+      <c r="D282" s="25"/>
       <c r="E282" s="24"/>
       <c r="F282" s="25"/>
       <c r="G282" s="26"/>
@@ -13862,7 +13872,7 @@
       <c r="A287" s="27"/>
       <c r="B287" s="33"/>
       <c r="C287" s="33"/>
-      <c r="D287" s="25"/>
+      <c r="D287" s="36"/>
       <c r="E287" s="24"/>
       <c r="F287" s="25"/>
       <c r="G287" s="26"/>
@@ -13909,7 +13919,7 @@
       <c r="A288" s="27"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
-      <c r="D288" s="36"/>
+      <c r="D288" s="25"/>
       <c r="E288" s="24"/>
       <c r="F288" s="25"/>
       <c r="G288" s="26"/>
@@ -14144,7 +14154,7 @@
       <c r="A293" s="27"/>
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
-      <c r="D293" s="25"/>
+      <c r="D293" s="36"/>
       <c r="E293" s="24"/>
       <c r="F293" s="25"/>
       <c r="G293" s="26"/>
@@ -14191,7 +14201,7 @@
       <c r="A294" s="27"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
-      <c r="D294" s="36"/>
+      <c r="D294" s="25"/>
       <c r="E294" s="24"/>
       <c r="F294" s="25"/>
       <c r="G294" s="26"/>
@@ -14282,7 +14292,7 @@
       <c r="AW295" s="30"/>
     </row>
     <row r="296" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A296" s="23"/>
+      <c r="A296" s="27"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
       <c r="D296" s="36"/>
@@ -14426,7 +14436,7 @@
       <c r="A299" s="23"/>
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
-      <c r="D299" s="25"/>
+      <c r="D299" s="36"/>
       <c r="E299" s="24"/>
       <c r="F299" s="25"/>
       <c r="G299" s="26"/>
@@ -14473,7 +14483,7 @@
       <c r="A300" s="23"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
-      <c r="D300" s="36"/>
+      <c r="D300" s="25"/>
       <c r="E300" s="24"/>
       <c r="F300" s="25"/>
       <c r="G300" s="26"/>
@@ -14567,7 +14577,7 @@
       <c r="A302" s="23"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
-      <c r="D302" s="25"/>
+      <c r="D302" s="36"/>
       <c r="E302" s="24"/>
       <c r="F302" s="25"/>
       <c r="G302" s="26"/>
@@ -14661,7 +14671,7 @@
       <c r="A304" s="23"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
-      <c r="D304" s="36"/>
+      <c r="D304" s="25"/>
       <c r="E304" s="24"/>
       <c r="F304" s="25"/>
       <c r="G304" s="26"/>
@@ -14847,15 +14857,15 @@
     </row>
     <row r="308" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A308" s="23"/>
-      <c r="B308" s="24"/>
-      <c r="C308" s="24"/>
-      <c r="D308" s="25"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="33"/>
+      <c r="D308" s="36"/>
       <c r="E308" s="24"/>
       <c r="F308" s="25"/>
       <c r="G308" s="26"/>
       <c r="H308" s="27"/>
       <c r="I308" s="27"/>
-      <c r="J308" s="24"/>
+      <c r="J308" s="27"/>
       <c r="K308" s="37"/>
       <c r="L308" s="24"/>
       <c r="N308" s="29"/>
@@ -15033,7 +15043,7 @@
       <c r="AV311" s="30"/>
       <c r="AW311" s="30"/>
     </row>
-    <row r="312" spans="1:49">
+    <row r="312" spans="1:49" s="28" customFormat="1" ht="25.15" customHeight="1">
       <c r="A312" s="23"/>
       <c r="B312" s="24"/>
       <c r="C312" s="24"/>
@@ -15044,6 +15054,41 @@
       <c r="H312" s="27"/>
       <c r="I312" s="27"/>
       <c r="J312" s="24"/>
+      <c r="K312" s="37"/>
+      <c r="L312" s="24"/>
+      <c r="N312" s="29"/>
+      <c r="O312" s="30"/>
+      <c r="P312" s="30"/>
+      <c r="Q312" s="30"/>
+      <c r="R312" s="30"/>
+      <c r="S312" s="30"/>
+      <c r="T312" s="30"/>
+      <c r="V312" s="30"/>
+      <c r="W312" s="29"/>
+      <c r="Z312" s="31"/>
+      <c r="AA312" s="31"/>
+      <c r="AB312" s="31"/>
+      <c r="AC312" s="31"/>
+      <c r="AD312" s="31"/>
+      <c r="AE312" s="31"/>
+      <c r="AF312" s="31"/>
+      <c r="AG312" s="31"/>
+      <c r="AH312" s="31"/>
+      <c r="AI312" s="31"/>
+      <c r="AJ312" s="31"/>
+      <c r="AK312" s="31"/>
+      <c r="AL312" s="31"/>
+      <c r="AM312" s="30"/>
+      <c r="AN312" s="30"/>
+      <c r="AO312" s="30"/>
+      <c r="AP312" s="30"/>
+      <c r="AQ312" s="30"/>
+      <c r="AR312" s="30"/>
+      <c r="AS312" s="30"/>
+      <c r="AT312" s="30"/>
+      <c r="AU312" s="30"/>
+      <c r="AV312" s="30"/>
+      <c r="AW312" s="30"/>
     </row>
     <row r="313" spans="1:49">
       <c r="A313" s="23"/>
@@ -15057,6 +15102,18 @@
       <c r="I313" s="27"/>
       <c r="J313" s="24"/>
     </row>
+    <row r="314" spans="1:49">
+      <c r="A314" s="23"/>
+      <c r="B314" s="24"/>
+      <c r="C314" s="24"/>
+      <c r="D314" s="25"/>
+      <c r="E314" s="24"/>
+      <c r="F314" s="25"/>
+      <c r="G314" s="26"/>
+      <c r="H314" s="27"/>
+      <c r="I314" s="27"/>
+      <c r="J314" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AT2"/>
   <mergeCells count="1">
@@ -15064,7 +15121,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="F196">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="F197">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>

--- a/doc/04.Schedule/工作计划.xlsx
+++ b/doc/04.Schedule/工作计划.xlsx
@@ -17,8 +17,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$L$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="216">
   <si>
     <t>交易系统开发</t>
   </si>
@@ -475,15 +475,9 @@
     <t>37</t>
   </si>
   <si>
-    <t>买卖标识报表上增加 盈亏金额和 多买、多卖股票数</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
-    <t>基础管理</t>
-  </si>
-  <si>
     <t>账户信息表增加字段，开户所在地</t>
   </si>
   <si>
@@ -536,9 +530,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>申请单实际交易数据关联，准确度投票及分类显示</t>
   </si>
   <si>
     <t>46</t>
@@ -709,6 +700,122 @@
   </si>
   <si>
     <t>权限调整，交易员可查询操作账户的所有交易记录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单实际交易数据关联，准确度投票及分类显示;申请理由分类列表可选；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>数据核对的交易明细对照画面修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每日交易记录的导入人和受益人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加账户负责人和股票负责人</t>
+  </si>
+  <si>
+    <t>数据核对画面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据维护</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员每日交易数据编辑画面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加账户信息可编辑。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员每日交易数据导入画面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.账户选择画面取消默认选择，改为交易员手动选择
+2.导入Excel文件路径默认改为上次导入的文件路径
+3.交易员导入委托数据时，画面增加交易日期可修改（输入变更密码？）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策股票池</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修改变更记录</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1358,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N315"/>
+  <dimension ref="A1:N299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
@@ -1802,7 +1909,7 @@
     </row>
     <row r="13" spans="1:14" ht="25.15" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>14</v>
@@ -1948,7 +2055,7 @@
     </row>
     <row r="17" spans="1:14" ht="25.15" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>14</v>
@@ -2164,7 +2271,7 @@
     </row>
     <row r="23" spans="1:14" ht="25.15" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>14</v>
@@ -2176,27 +2283,31 @@
         <v>16</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>80</v>
+      <c r="G23" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+        <v>119</v>
+      </c>
+      <c r="I23" s="13">
+        <v>42664</v>
+      </c>
+      <c r="J23" s="15">
+        <v>42664</v>
+      </c>
       <c r="K23" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="25.15" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>70</v>
       </c>
@@ -2210,27 +2321,33 @@
         <v>16</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>84</v>
+      <c r="G24" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="I24" s="13">
+        <v>42668</v>
+      </c>
+      <c r="J24" s="15">
+        <v>42668</v>
+      </c>
       <c r="K24" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="29.25" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>74</v>
       </c>
@@ -2244,27 +2361,33 @@
         <v>16</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>87</v>
+      <c r="G25" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="I25" s="13">
+        <v>42670</v>
+      </c>
+      <c r="J25" s="15">
+        <v>42670</v>
+      </c>
       <c r="K25" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="25.15" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
@@ -2278,25 +2401,31 @@
         <v>16</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>91</v>
+      <c r="G26" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="13">
+        <v>42671</v>
+      </c>
+      <c r="J26" s="15">
+        <v>42671</v>
+      </c>
       <c r="K26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="25.15" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
@@ -2310,23 +2439,29 @@
         <v>16</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H27" s="12"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="13">
+        <v>42674</v>
+      </c>
+      <c r="J27" s="15">
+        <v>42674</v>
+      </c>
       <c r="K27" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A28" s="8" t="s">
@@ -2342,22 +2477,28 @@
         <v>16</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+        <v>130</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="13">
+        <v>42677</v>
+      </c>
+      <c r="J28" s="15">
+        <v>42677</v>
+      </c>
       <c r="K28" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
@@ -2376,27 +2517,31 @@
         <v>16</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="H29" s="12"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="I29" s="13">
+        <v>42684</v>
+      </c>
+      <c r="J29" s="15">
+        <v>42684</v>
+      </c>
       <c r="K29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" ht="25.15" customHeight="1">
+    <row r="30" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>92</v>
       </c>
@@ -2410,27 +2555,31 @@
         <v>16</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="31"/>
+        <v>139</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13">
+        <v>42685</v>
+      </c>
+      <c r="J30" s="15">
+        <v>42675</v>
+      </c>
       <c r="K30" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="25.15" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -2444,25 +2593,33 @@
         <v>16</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="31"/>
+      <c r="G31" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" s="13">
+        <v>42685</v>
+      </c>
+      <c r="J31" s="32">
+        <v>42685</v>
+      </c>
       <c r="K31" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="25.15" customHeight="1">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="8" t="s">
         <v>96</v>
       </c>
@@ -2475,26 +2632,34 @@
       <c r="D32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>102</v>
+      <c r="E32" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I32" s="42">
+        <v>42688</v>
+      </c>
+      <c r="J32" s="15">
+        <v>42688</v>
+      </c>
       <c r="K32" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="25.15" customHeight="1">
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="8" t="s">
         <v>98</v>
       </c>
@@ -2507,26 +2672,34 @@
       <c r="D33" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>24</v>
+      <c r="E33" s="43" t="s">
+        <v>180</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="42">
+        <v>42688</v>
+      </c>
+      <c r="J33" s="15">
+        <v>42688</v>
+      </c>
       <c r="K33" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="25.15" customHeight="1">
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="8" t="s">
         <v>101</v>
       </c>
@@ -2539,26 +2712,34 @@
       <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>109</v>
+      <c r="E34" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="42">
+        <v>42688</v>
+      </c>
+      <c r="J34" s="15">
+        <v>42688</v>
+      </c>
       <c r="K34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="25.15" customHeight="1">
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>104</v>
       </c>
@@ -2572,25 +2753,33 @@
         <v>16</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="42">
+        <v>42689</v>
+      </c>
+      <c r="J35" s="15">
+        <v>42689</v>
+      </c>
       <c r="K35" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="25.15" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="8" t="s">
         <v>106</v>
       </c>
@@ -2603,22 +2792,34 @@
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="31"/>
+      <c r="E36" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="42">
+        <v>42689</v>
+      </c>
+      <c r="J36" s="15">
+        <v>42689</v>
+      </c>
       <c r="K36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" ht="25.15" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A37" s="8" t="s">
         <v>108</v>
       </c>
@@ -2632,25 +2833,33 @@
         <v>16</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+        <v>162</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="42">
+        <v>42689</v>
+      </c>
+      <c r="J37" s="15">
+        <v>42689</v>
+      </c>
       <c r="K37" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="25.15" customHeight="1">
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" s="18" customFormat="1" ht="38.25" customHeight="1">
       <c r="A38" s="8" t="s">
         <v>111</v>
       </c>
@@ -2664,31 +2873,31 @@
         <v>16</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>120</v>
+      <c r="G38" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" s="13">
-        <v>42664</v>
-      </c>
-      <c r="J38" s="15">
-        <v>42664</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I38" s="15">
+        <v>42696</v>
+      </c>
+      <c r="J38" s="31"/>
       <c r="K38" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" ht="25.15" customHeight="1">
       <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
@@ -2702,35 +2911,31 @@
         <v>16</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>123</v>
+      <c r="G39" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="13">
-        <v>42668</v>
-      </c>
-      <c r="J39" s="15">
-        <v>42668</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="I39" s="15">
+        <v>42704</v>
+      </c>
+      <c r="J39" s="31"/>
       <c r="K39" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-    </row>
-    <row r="40" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="40" spans="1:14" ht="25.15" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>14</v>
@@ -2742,35 +2947,31 @@
         <v>16</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>126</v>
+      <c r="G40" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="13">
-        <v>42670</v>
-      </c>
-      <c r="J40" s="15">
-        <v>42670</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I40" s="15">
+        <v>42710</v>
+      </c>
+      <c r="J40" s="31"/>
       <c r="K40" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
     </row>
     <row r="41" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>14</v>
@@ -2781,22 +2982,22 @@
       <c r="D41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>119</v>
+      <c r="E41" s="43" t="s">
+        <v>213</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13">
-        <v>42671</v>
-      </c>
-      <c r="J41" s="15">
-        <v>42671</v>
-      </c>
+      <c r="G41" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="15">
+        <v>42711</v>
+      </c>
+      <c r="J41" s="31"/>
       <c r="K41" s="16" t="s">
         <v>21</v>
       </c>
@@ -2808,7 +3009,7 @@
     </row>
     <row r="42" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>14</v>
@@ -2819,22 +3020,22 @@
       <c r="D42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>119</v>
+      <c r="E42" s="43" t="s">
+        <v>206</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="13">
-        <v>42674</v>
-      </c>
-      <c r="J42" s="15">
-        <v>42674</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="I42" s="15">
+        <v>42712</v>
+      </c>
+      <c r="J42" s="31"/>
       <c r="K42" s="16" t="s">
         <v>21</v>
       </c>
@@ -2846,7 +3047,7 @@
     </row>
     <row r="43" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>14</v>
@@ -2857,24 +3058,22 @@
       <c r="D43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>119</v>
+      <c r="E43" s="43" t="s">
+        <v>206</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>132</v>
+      <c r="G43" s="44" t="s">
+        <v>204</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I43" s="13">
-        <v>42677</v>
-      </c>
-      <c r="J43" s="15">
-        <v>42677</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="I43" s="15">
+        <v>42712</v>
+      </c>
+      <c r="J43" s="31"/>
       <c r="K43" s="16" t="s">
         <v>21</v>
       </c>
@@ -2886,7 +3085,7 @@
     </row>
     <row r="44" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>14</v>
@@ -2897,20 +3096,20 @@
       <c r="D44" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>119</v>
+      <c r="E44" s="43" t="s">
+        <v>207</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>135</v>
+      <c r="G44" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="I44" s="15">
-        <v>42683</v>
+        <v>42713</v>
       </c>
       <c r="J44" s="31"/>
       <c r="K44" s="16" t="s">
@@ -2922,9 +3121,9 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="45" spans="1:14" s="18" customFormat="1" ht="93.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>14</v>
@@ -2935,22 +3134,22 @@
       <c r="D45" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>119</v>
+      <c r="E45" s="43" t="s">
+        <v>210</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13">
-        <v>42684</v>
-      </c>
-      <c r="J45" s="15">
-        <v>42684</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="15">
+        <v>42713</v>
+      </c>
+      <c r="J45" s="31"/>
       <c r="K45" s="16" t="s">
         <v>21</v>
       </c>
@@ -2962,7 +3161,7 @@
     </row>
     <row r="46" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>14</v>
@@ -2974,21 +3173,21 @@
         <v>16</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="13">
-        <v>42685</v>
-      </c>
-      <c r="J46" s="15">
-        <v>42675</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I46" s="15">
+        <v>42716</v>
+      </c>
+      <c r="J46" s="31"/>
       <c r="K46" s="16" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +3199,7 @@
     </row>
     <row r="47" spans="1:14" ht="25.15" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>14</v>
@@ -3012,31 +3211,29 @@
         <v>16</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>144</v>
+      <c r="G47" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="15">
-        <v>42692</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I47" s="31"/>
       <c r="J47" s="31"/>
       <c r="K47" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="25.15" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>14</v>
@@ -3048,31 +3245,29 @@
         <v>16</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>147</v>
+      <c r="G48" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" s="15">
-        <v>42699</v>
-      </c>
-      <c r="J48" s="31"/>
+        <v>85</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="29.25" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>14</v>
@@ -3089,30 +3284,24 @@
       <c r="F49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>149</v>
+      <c r="G49" s="25" t="s">
+        <v>87</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I49" s="13">
-        <v>42685</v>
-      </c>
-      <c r="J49" s="32">
-        <v>42685</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-    </row>
-    <row r="50" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="50" spans="1:14" ht="25.15" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>14</v>
@@ -3123,36 +3312,28 @@
       <c r="D50" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="43" t="s">
-        <v>171</v>
+      <c r="E50" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="I50" s="42">
-        <v>42688</v>
-      </c>
-      <c r="J50" s="15">
-        <v>42688</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-    </row>
-    <row r="51" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="51" spans="1:14" ht="25.15" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>14</v>
@@ -3163,36 +3344,28 @@
       <c r="D51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="43" t="s">
-        <v>183</v>
+      <c r="E51" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="42">
-        <v>42688</v>
-      </c>
-      <c r="J51" s="15">
-        <v>42688</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>14</v>
@@ -3203,24 +3376,18 @@
       <c r="D52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="43" t="s">
-        <v>164</v>
+      <c r="E52" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="I52" s="42">
-        <v>42688</v>
-      </c>
-      <c r="J52" s="15">
-        <v>42688</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="16" t="s">
         <v>21</v>
       </c>
@@ -3232,7 +3399,7 @@
     </row>
     <row r="53" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>14</v>
@@ -3244,35 +3411,29 @@
         <v>16</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I53" s="42">
-        <v>42689</v>
-      </c>
-      <c r="J53" s="15">
-        <v>42689</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M53" s="23"/>
       <c r="N53" s="23"/>
     </row>
-    <row r="54" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="54" spans="1:14" ht="25.15" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>14</v>
@@ -3283,36 +3444,30 @@
       <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="43" t="s">
-        <v>177</v>
+      <c r="E54" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="I54" s="42">
-        <v>42689</v>
-      </c>
-      <c r="J54" s="15">
-        <v>42689</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-    </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="55" spans="1:14" ht="25.15" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>14</v>
@@ -3324,35 +3479,27 @@
         <v>16</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="42">
-        <v>42689</v>
-      </c>
-      <c r="J55" s="15">
-        <v>42689</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-    </row>
-    <row r="56" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="56" spans="1:14" ht="25.15" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>14</v>
@@ -3364,131 +3511,221 @@
         <v>16</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I56" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="31"/>
       <c r="K56" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-    </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="H57" s="12"/>
-      <c r="I57" s="31"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="31"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-    </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="14"/>
+      <c r="K57" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="H58" s="12"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-    </row>
-    <row r="59" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="14"/>
+      <c r="K58" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="H59" s="12"/>
-      <c r="I59" s="31"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-    </row>
-    <row r="60" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A60" s="8"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="14"/>
+      <c r="K59" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="31"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
+      <c r="K60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="61" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
+      <c r="A61" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G61" s="14"/>
       <c r="H61" s="12"/>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
+      <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
     </row>
     <row r="62" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
+      <c r="A62" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G62" s="14"/>
       <c r="H62" s="12"/>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
     </row>
     <row r="63" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
+      <c r="A63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G63" s="14"/>
       <c r="H63" s="12"/>
       <c r="I63" s="31"/>
@@ -3499,12 +3736,22 @@
       <c r="N63" s="23"/>
     </row>
     <row r="64" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="A64" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G64" s="14"/>
       <c r="H64" s="12"/>
       <c r="I64" s="31"/>
@@ -3515,12 +3762,22 @@
       <c r="N64" s="23"/>
     </row>
     <row r="65" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
+      <c r="A65" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G65" s="14"/>
       <c r="H65" s="12"/>
       <c r="I65" s="31"/>
@@ -3531,12 +3788,22 @@
       <c r="N65" s="23"/>
     </row>
     <row r="66" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="A66" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G66" s="14"/>
       <c r="H66" s="12"/>
       <c r="I66" s="31"/>
@@ -3547,12 +3814,22 @@
       <c r="N66" s="23"/>
     </row>
     <row r="67" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
+      <c r="A67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G67" s="14"/>
       <c r="H67" s="12"/>
       <c r="I67" s="31"/>
@@ -3563,12 +3840,22 @@
       <c r="N67" s="23"/>
     </row>
     <row r="68" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
+      <c r="A68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G68" s="14"/>
       <c r="H68" s="12"/>
       <c r="I68" s="31"/>
@@ -3579,12 +3866,22 @@
       <c r="N68" s="23"/>
     </row>
     <row r="69" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="A69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G69" s="14"/>
       <c r="H69" s="12"/>
       <c r="I69" s="31"/>
@@ -3595,12 +3892,22 @@
       <c r="N69" s="23"/>
     </row>
     <row r="70" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="A70" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G70" s="14"/>
       <c r="H70" s="12"/>
       <c r="I70" s="31"/>
@@ -3611,12 +3918,22 @@
       <c r="N70" s="23"/>
     </row>
     <row r="71" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
+      <c r="A71" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G71" s="14"/>
       <c r="H71" s="12"/>
       <c r="I71" s="31"/>
@@ -3627,12 +3944,22 @@
       <c r="N71" s="23"/>
     </row>
     <row r="72" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
+      <c r="A72" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G72" s="14"/>
       <c r="H72" s="12"/>
       <c r="I72" s="31"/>
@@ -3643,12 +3970,22 @@
       <c r="N72" s="23"/>
     </row>
     <row r="73" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="A73" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="G73" s="14"/>
       <c r="H73" s="12"/>
       <c r="I73" s="31"/>
@@ -3932,9 +4269,9 @@
     </row>
     <row r="91" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A91" s="8"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="14"/>
@@ -3948,9 +4285,9 @@
     </row>
     <row r="92" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A92" s="8"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="14"/>
@@ -3964,9 +4301,9 @@
     </row>
     <row r="93" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A93" s="8"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="14"/>
@@ -3980,9 +4317,9 @@
     </row>
     <row r="94" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A94" s="8"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="14"/>
@@ -3996,9 +4333,9 @@
     </row>
     <row r="95" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A95" s="8"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="14"/>
@@ -4012,9 +4349,9 @@
     </row>
     <row r="96" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A96" s="8"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="14"/>
@@ -4028,9 +4365,9 @@
     </row>
     <row r="97" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A97" s="8"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="28"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="14"/>
@@ -4044,9 +4381,9 @@
     </row>
     <row r="98" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A98" s="8"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="14"/>
@@ -4060,9 +4397,9 @@
     </row>
     <row r="99" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A99" s="8"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="14"/>
@@ -4076,9 +4413,9 @@
     </row>
     <row r="100" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A100" s="8"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="14"/>
@@ -4092,9 +4429,9 @@
     </row>
     <row r="101" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A101" s="8"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="14"/>
@@ -4108,9 +4445,9 @@
     </row>
     <row r="102" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A102" s="8"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="14"/>
@@ -4124,9 +4461,9 @@
     </row>
     <row r="103" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A103" s="8"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="28"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="14"/>
@@ -4140,9 +4477,9 @@
     </row>
     <row r="104" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A104" s="8"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="28"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="14"/>
@@ -4156,9 +4493,9 @@
     </row>
     <row r="105" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A105" s="8"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="28"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="14"/>
@@ -4172,9 +4509,9 @@
     </row>
     <row r="106" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A106" s="8"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="28"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="14"/>
@@ -4188,9 +4525,9 @@
     </row>
     <row r="107" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A107" s="8"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="14"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="14"/>
@@ -4220,9 +4557,9 @@
     </row>
     <row r="109" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A109" s="8"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="14"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="28"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="14"/>
@@ -5130,7 +5467,7 @@
       <c r="M165" s="23"/>
       <c r="N165" s="23"/>
     </row>
-    <row r="166" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="166" spans="1:14" ht="25.15" customHeight="1">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -5143,14 +5480,12 @@
       <c r="J166" s="31"/>
       <c r="K166" s="16"/>
       <c r="L166" s="16"/>
-      <c r="M166" s="23"/>
-      <c r="N166" s="23"/>
-    </row>
-    <row r="167" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="167" spans="1:14" ht="25.15" customHeight="1">
       <c r="A167" s="8"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="28"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
       <c r="G167" s="14"/>
@@ -5159,14 +5494,12 @@
       <c r="J167" s="31"/>
       <c r="K167" s="16"/>
       <c r="L167" s="16"/>
-      <c r="M167" s="23"/>
-      <c r="N167" s="23"/>
-    </row>
-    <row r="168" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="168" spans="1:14" ht="25.15" customHeight="1">
       <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="28"/>
+      <c r="B168" s="27"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
       <c r="G168" s="14"/>
@@ -5175,14 +5508,12 @@
       <c r="J168" s="31"/>
       <c r="K168" s="16"/>
       <c r="L168" s="16"/>
-      <c r="M168" s="23"/>
-      <c r="N168" s="23"/>
-    </row>
-    <row r="169" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="169" spans="1:14" ht="25.15" customHeight="1">
       <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="28"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
       <c r="G169" s="14"/>
@@ -5191,14 +5522,12 @@
       <c r="J169" s="31"/>
       <c r="K169" s="16"/>
       <c r="L169" s="16"/>
-      <c r="M169" s="23"/>
-      <c r="N169" s="23"/>
-    </row>
-    <row r="170" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="170" spans="1:14" ht="25.15" customHeight="1">
       <c r="A170" s="8"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="28"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
       <c r="G170" s="14"/>
@@ -5207,14 +5536,12 @@
       <c r="J170" s="31"/>
       <c r="K170" s="16"/>
       <c r="L170" s="16"/>
-      <c r="M170" s="23"/>
-      <c r="N170" s="23"/>
-    </row>
-    <row r="171" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="171" spans="1:14" ht="25.15" customHeight="1">
       <c r="A171" s="8"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="28"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
       <c r="G171" s="14"/>
@@ -5223,14 +5550,12 @@
       <c r="J171" s="31"/>
       <c r="K171" s="16"/>
       <c r="L171" s="16"/>
-      <c r="M171" s="23"/>
-      <c r="N171" s="23"/>
-    </row>
-    <row r="172" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="172" spans="1:14" ht="25.15" customHeight="1">
       <c r="A172" s="8"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="28"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
       <c r="G172" s="14"/>
@@ -5239,14 +5564,12 @@
       <c r="J172" s="31"/>
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
-      <c r="M172" s="23"/>
-      <c r="N172" s="23"/>
-    </row>
-    <row r="173" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="173" spans="1:14" ht="25.15" customHeight="1">
       <c r="A173" s="8"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="28"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
       <c r="G173" s="14"/>
@@ -5255,14 +5578,12 @@
       <c r="J173" s="31"/>
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
-      <c r="M173" s="23"/>
-      <c r="N173" s="23"/>
-    </row>
-    <row r="174" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="174" spans="1:14" ht="25.15" customHeight="1">
       <c r="A174" s="8"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="28"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
       <c r="G174" s="14"/>
@@ -5271,30 +5592,25 @@
       <c r="J174" s="31"/>
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
-      <c r="M174" s="23"/>
-      <c r="N174" s="23"/>
-    </row>
-    <row r="175" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="16"/>
-      <c r="L175" s="16"/>
-      <c r="M175" s="23"/>
-      <c r="N175" s="23"/>
-    </row>
-    <row r="176" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="175" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A175" s="34"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="40"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="35"/>
+    </row>
+    <row r="176" spans="1:14" ht="25.15" customHeight="1">
       <c r="A176" s="8"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="28"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
       <c r="G176" s="14"/>
@@ -5302,109 +5618,99 @@
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
       <c r="K176" s="16"/>
-      <c r="L176" s="16"/>
-      <c r="M176" s="23"/>
-      <c r="N176" s="23"/>
-    </row>
-    <row r="177" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="177" spans="1:14" ht="25.15" customHeight="1">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="28"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="14"/>
+      <c r="E177" s="38"/>
+      <c r="F177" s="38"/>
+      <c r="G177" s="39"/>
       <c r="H177" s="12"/>
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
-      <c r="K177" s="16"/>
-      <c r="L177" s="16"/>
-      <c r="M177" s="23"/>
-      <c r="N177" s="23"/>
-    </row>
-    <row r="178" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="K177" s="31"/>
+    </row>
+    <row r="178" spans="1:14" ht="25.15" customHeight="1">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="28"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="14"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="39"/>
       <c r="H178" s="12"/>
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
-      <c r="K178" s="16"/>
-      <c r="L178" s="16"/>
-      <c r="M178" s="23"/>
-      <c r="N178" s="23"/>
-    </row>
-    <row r="179" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="K178" s="31"/>
+    </row>
+    <row r="179" spans="1:14" ht="25.15" customHeight="1">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="28"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="14"/>
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="39"/>
       <c r="H179" s="12"/>
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
-      <c r="K179" s="16"/>
-      <c r="L179" s="16"/>
-      <c r="M179" s="23"/>
-      <c r="N179" s="23"/>
-    </row>
-    <row r="180" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="K179" s="31"/>
+    </row>
+    <row r="180" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="28"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="14"/>
+      <c r="E180" s="38"/>
+      <c r="F180" s="38"/>
+      <c r="G180" s="39"/>
       <c r="H180" s="12"/>
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
-      <c r="K180" s="16"/>
-      <c r="L180" s="16"/>
+      <c r="K180" s="31"/>
+      <c r="L180" s="21"/>
       <c r="M180" s="23"/>
       <c r="N180" s="23"/>
     </row>
-    <row r="181" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="181" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="28"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="14"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="38"/>
+      <c r="G181" s="39"/>
       <c r="H181" s="12"/>
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
-      <c r="K181" s="16"/>
-      <c r="L181" s="16"/>
+      <c r="K181" s="31"/>
+      <c r="L181" s="21"/>
       <c r="M181" s="23"/>
       <c r="N181" s="23"/>
     </row>
-    <row r="182" spans="1:14" ht="25.15" customHeight="1">
+    <row r="182" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A182" s="8"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="28"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="14"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="38"/>
+      <c r="G182" s="39"/>
       <c r="H182" s="12"/>
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
-      <c r="K182" s="16"/>
-      <c r="L182" s="16"/>
-    </row>
-    <row r="183" spans="1:14" ht="25.15" customHeight="1">
+      <c r="K182" s="31"/>
+      <c r="L182" s="21"/>
+      <c r="M182" s="23"/>
+      <c r="N182" s="23"/>
+    </row>
+    <row r="183" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A183" s="8"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="28"/>
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
       <c r="G183" s="14"/>
@@ -5412,13 +5718,15 @@
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
       <c r="K183" s="16"/>
-      <c r="L183" s="16"/>
-    </row>
-    <row r="184" spans="1:14" ht="25.15" customHeight="1">
+      <c r="L183" s="21"/>
+      <c r="M183" s="23"/>
+      <c r="N183" s="23"/>
+    </row>
+    <row r="184" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A184" s="8"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="28"/>
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
       <c r="G184" s="14"/>
@@ -5426,13 +5734,15 @@
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
       <c r="K184" s="16"/>
-      <c r="L184" s="16"/>
-    </row>
-    <row r="185" spans="1:14" ht="25.15" customHeight="1">
+      <c r="L184" s="21"/>
+      <c r="M184" s="23"/>
+      <c r="N184" s="23"/>
+    </row>
+    <row r="185" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A185" s="8"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="28"/>
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
       <c r="G185" s="14"/>
@@ -5440,13 +5750,15 @@
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
       <c r="K185" s="16"/>
-      <c r="L185" s="16"/>
-    </row>
-    <row r="186" spans="1:14" ht="25.15" customHeight="1">
+      <c r="L185" s="21"/>
+      <c r="M185" s="23"/>
+      <c r="N185" s="23"/>
+    </row>
+    <row r="186" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A186" s="8"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="28"/>
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
       <c r="G186" s="14"/>
@@ -5454,13 +5766,15 @@
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
       <c r="K186" s="16"/>
-      <c r="L186" s="16"/>
-    </row>
-    <row r="187" spans="1:14" ht="25.15" customHeight="1">
+      <c r="L186" s="21"/>
+      <c r="M186" s="23"/>
+      <c r="N186" s="23"/>
+    </row>
+    <row r="187" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
       <c r="A187" s="8"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="28"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
       <c r="G187" s="14"/>
@@ -5468,13 +5782,15 @@
       <c r="I187" s="31"/>
       <c r="J187" s="31"/>
       <c r="K187" s="16"/>
-      <c r="L187" s="16"/>
-    </row>
-    <row r="188" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A188" s="8"/>
+      <c r="L187" s="21"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="23"/>
+    </row>
+    <row r="188" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A188" s="41"/>
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
+      <c r="D188" s="14"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
       <c r="G188" s="14"/>
@@ -5482,13 +5798,15 @@
       <c r="I188" s="31"/>
       <c r="J188" s="31"/>
       <c r="K188" s="16"/>
-      <c r="L188" s="16"/>
-    </row>
-    <row r="189" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A189" s="8"/>
+      <c r="L188" s="21"/>
+      <c r="M188" s="23"/>
+      <c r="N188" s="23"/>
+    </row>
+    <row r="189" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A189" s="41"/>
       <c r="B189" s="27"/>
       <c r="C189" s="27"/>
-      <c r="D189" s="16"/>
+      <c r="D189" s="28"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
       <c r="G189" s="14"/>
@@ -5496,13 +5814,15 @@
       <c r="I189" s="31"/>
       <c r="J189" s="31"/>
       <c r="K189" s="16"/>
-      <c r="L189" s="16"/>
-    </row>
-    <row r="190" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A190" s="8"/>
+      <c r="L189" s="21"/>
+      <c r="M189" s="23"/>
+      <c r="N189" s="23"/>
+    </row>
+    <row r="190" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A190" s="41"/>
       <c r="B190" s="27"/>
       <c r="C190" s="27"/>
-      <c r="D190" s="16"/>
+      <c r="D190" s="28"/>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
       <c r="G190" s="14"/>
@@ -5510,26 +5830,31 @@
       <c r="I190" s="31"/>
       <c r="J190" s="31"/>
       <c r="K190" s="16"/>
-      <c r="L190" s="16"/>
-    </row>
-    <row r="191" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A191" s="34"/>
-      <c r="B191" s="35"/>
-      <c r="C191" s="35"/>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-      <c r="F191" s="35"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="35"/>
-    </row>
-    <row r="192" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A192" s="8"/>
+      <c r="L190" s="21"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+    </row>
+    <row r="191" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A191" s="41"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+      <c r="K191" s="16"/>
+      <c r="L191" s="21"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23"/>
+    </row>
+    <row r="192" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A192" s="41"/>
       <c r="B192" s="27"/>
       <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
+      <c r="D192" s="14"/>
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
       <c r="G192" s="14"/>
@@ -5537,98 +5862,110 @@
       <c r="I192" s="31"/>
       <c r="J192" s="31"/>
       <c r="K192" s="16"/>
-    </row>
-    <row r="193" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A193" s="8"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="38"/>
-      <c r="F193" s="38"/>
-      <c r="G193" s="39"/>
+      <c r="L192" s="21"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="23"/>
+    </row>
+    <row r="193" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A193" s="41"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="14"/>
       <c r="H193" s="12"/>
       <c r="I193" s="31"/>
       <c r="J193" s="31"/>
-      <c r="K193" s="31"/>
-    </row>
-    <row r="194" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A194" s="8"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
+      <c r="K193" s="16"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+    </row>
+    <row r="194" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A194" s="41"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
       <c r="D194" s="28"/>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
-      <c r="G194" s="39"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="14"/>
       <c r="H194" s="12"/>
       <c r="I194" s="31"/>
       <c r="J194" s="31"/>
-      <c r="K194" s="31"/>
-    </row>
-    <row r="195" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A195" s="8"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
+      <c r="K194" s="16"/>
+      <c r="L194" s="21"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+    </row>
+    <row r="195" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A195" s="41"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
       <c r="D195" s="28"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="38"/>
-      <c r="G195" s="39"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="14"/>
       <c r="H195" s="12"/>
       <c r="I195" s="31"/>
       <c r="J195" s="31"/>
-      <c r="K195" s="31"/>
+      <c r="K195" s="16"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
     </row>
     <row r="196" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A196" s="8"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
       <c r="D196" s="28"/>
-      <c r="E196" s="38"/>
-      <c r="F196" s="38"/>
-      <c r="G196" s="39"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="14"/>
       <c r="H196" s="12"/>
       <c r="I196" s="31"/>
       <c r="J196" s="31"/>
-      <c r="K196" s="31"/>
+      <c r="K196" s="16"/>
       <c r="L196" s="21"/>
       <c r="M196" s="23"/>
       <c r="N196" s="23"/>
     </row>
     <row r="197" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A197" s="8"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
       <c r="D197" s="28"/>
-      <c r="E197" s="38"/>
-      <c r="F197" s="38"/>
-      <c r="G197" s="39"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="14"/>
       <c r="H197" s="12"/>
       <c r="I197" s="31"/>
       <c r="J197" s="31"/>
-      <c r="K197" s="31"/>
+      <c r="K197" s="16"/>
       <c r="L197" s="21"/>
       <c r="M197" s="23"/>
       <c r="N197" s="23"/>
     </row>
     <row r="198" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A198" s="8"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="27"/>
+      <c r="C198" s="27"/>
       <c r="D198" s="28"/>
-      <c r="E198" s="38"/>
-      <c r="F198" s="38"/>
-      <c r="G198" s="39"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="14"/>
       <c r="H198" s="12"/>
       <c r="I198" s="31"/>
       <c r="J198" s="31"/>
-      <c r="K198" s="31"/>
+      <c r="K198" s="16"/>
       <c r="L198" s="21"/>
       <c r="M198" s="23"/>
       <c r="N198" s="23"/>
     </row>
     <row r="199" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A199" s="8"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
       <c r="D199" s="28"/>
       <c r="E199" s="16"/>
       <c r="F199" s="16"/>
@@ -5642,9 +5979,9 @@
       <c r="N199" s="23"/>
     </row>
     <row r="200" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A200" s="8"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
+      <c r="A200" s="41"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
       <c r="D200" s="28"/>
       <c r="E200" s="16"/>
       <c r="F200" s="16"/>
@@ -5658,9 +5995,9 @@
       <c r="N200" s="23"/>
     </row>
     <row r="201" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A201" s="8"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
+      <c r="A201" s="41"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
       <c r="D201" s="28"/>
       <c r="E201" s="16"/>
       <c r="F201" s="16"/>
@@ -5674,23 +6011,23 @@
       <c r="N201" s="23"/>
     </row>
     <row r="202" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A202" s="8"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
-      <c r="D202" s="28"/>
+      <c r="D202" s="14"/>
       <c r="E202" s="16"/>
       <c r="F202" s="16"/>
       <c r="G202" s="14"/>
       <c r="H202" s="12"/>
       <c r="I202" s="31"/>
       <c r="J202" s="31"/>
-      <c r="K202" s="16"/>
+      <c r="K202" s="31"/>
       <c r="L202" s="21"/>
       <c r="M202" s="23"/>
       <c r="N202" s="23"/>
     </row>
     <row r="203" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A203" s="8"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="28"/>
@@ -5700,31 +6037,31 @@
       <c r="H203" s="12"/>
       <c r="I203" s="31"/>
       <c r="J203" s="31"/>
-      <c r="K203" s="16"/>
+      <c r="K203" s="31"/>
       <c r="L203" s="21"/>
       <c r="M203" s="23"/>
       <c r="N203" s="23"/>
     </row>
     <row r="204" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A204" s="41"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="27"/>
-      <c r="D204" s="14"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="28"/>
       <c r="E204" s="16"/>
       <c r="F204" s="16"/>
       <c r="G204" s="14"/>
       <c r="H204" s="12"/>
       <c r="I204" s="31"/>
       <c r="J204" s="31"/>
-      <c r="K204" s="16"/>
+      <c r="K204" s="31"/>
       <c r="L204" s="21"/>
       <c r="M204" s="23"/>
       <c r="N204" s="23"/>
     </row>
     <row r="205" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A205" s="41"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="27"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
       <c r="D205" s="28"/>
       <c r="E205" s="16"/>
       <c r="F205" s="16"/>
@@ -5732,15 +6069,15 @@
       <c r="H205" s="12"/>
       <c r="I205" s="31"/>
       <c r="J205" s="31"/>
-      <c r="K205" s="16"/>
+      <c r="K205" s="31"/>
       <c r="L205" s="21"/>
       <c r="M205" s="23"/>
       <c r="N205" s="23"/>
     </row>
     <row r="206" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A206" s="41"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="27"/>
+      <c r="A206" s="31"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
       <c r="D206" s="28"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
@@ -5748,63 +6085,63 @@
       <c r="H206" s="12"/>
       <c r="I206" s="31"/>
       <c r="J206" s="31"/>
-      <c r="K206" s="16"/>
+      <c r="K206" s="31"/>
       <c r="L206" s="21"/>
       <c r="M206" s="23"/>
       <c r="N206" s="23"/>
     </row>
     <row r="207" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A207" s="41"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="27"/>
-      <c r="D207" s="14"/>
+      <c r="A207" s="31"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="28"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
       <c r="G207" s="14"/>
       <c r="H207" s="12"/>
       <c r="I207" s="31"/>
       <c r="J207" s="31"/>
-      <c r="K207" s="16"/>
+      <c r="K207" s="31"/>
       <c r="L207" s="21"/>
       <c r="M207" s="23"/>
       <c r="N207" s="23"/>
     </row>
     <row r="208" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A208" s="41"/>
-      <c r="B208" s="27"/>
-      <c r="C208" s="27"/>
-      <c r="D208" s="14"/>
+      <c r="A208" s="31"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="28"/>
       <c r="E208" s="16"/>
       <c r="F208" s="16"/>
       <c r="G208" s="14"/>
       <c r="H208" s="12"/>
       <c r="I208" s="31"/>
       <c r="J208" s="31"/>
-      <c r="K208" s="16"/>
+      <c r="K208" s="31"/>
       <c r="L208" s="21"/>
       <c r="M208" s="23"/>
       <c r="N208" s="23"/>
     </row>
     <row r="209" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A209" s="41"/>
-      <c r="B209" s="27"/>
-      <c r="C209" s="27"/>
-      <c r="D209" s="14"/>
+      <c r="A209" s="31"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="28"/>
       <c r="E209" s="16"/>
       <c r="F209" s="16"/>
       <c r="G209" s="14"/>
       <c r="H209" s="12"/>
       <c r="I209" s="31"/>
       <c r="J209" s="31"/>
-      <c r="K209" s="16"/>
+      <c r="K209" s="31"/>
       <c r="L209" s="21"/>
       <c r="M209" s="23"/>
       <c r="N209" s="23"/>
     </row>
     <row r="210" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A210" s="41"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
+      <c r="A210" s="31"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
       <c r="D210" s="28"/>
       <c r="E210" s="16"/>
       <c r="F210" s="16"/>
@@ -5812,15 +6149,15 @@
       <c r="H210" s="12"/>
       <c r="I210" s="31"/>
       <c r="J210" s="31"/>
-      <c r="K210" s="16"/>
+      <c r="K210" s="31"/>
       <c r="L210" s="21"/>
       <c r="M210" s="23"/>
       <c r="N210" s="23"/>
     </row>
     <row r="211" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A211" s="41"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="27"/>
+      <c r="A211" s="31"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
       <c r="D211" s="28"/>
       <c r="E211" s="16"/>
       <c r="F211" s="16"/>
@@ -5828,15 +6165,15 @@
       <c r="H211" s="12"/>
       <c r="I211" s="31"/>
       <c r="J211" s="31"/>
-      <c r="K211" s="16"/>
+      <c r="K211" s="31"/>
       <c r="L211" s="21"/>
       <c r="M211" s="23"/>
       <c r="N211" s="23"/>
     </row>
-    <row r="212" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A212" s="41"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
+    <row r="212" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A212" s="31"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
       <c r="D212" s="28"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
@@ -5844,15 +6181,15 @@
       <c r="H212" s="12"/>
       <c r="I212" s="31"/>
       <c r="J212" s="31"/>
-      <c r="K212" s="16"/>
+      <c r="K212" s="31"/>
       <c r="L212" s="21"/>
       <c r="M212" s="23"/>
       <c r="N212" s="23"/>
     </row>
-    <row r="213" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A213" s="41"/>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
+    <row r="213" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A213" s="31"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
       <c r="D213" s="28"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
@@ -5860,15 +6197,15 @@
       <c r="H213" s="12"/>
       <c r="I213" s="31"/>
       <c r="J213" s="31"/>
-      <c r="K213" s="16"/>
+      <c r="K213" s="31"/>
       <c r="L213" s="21"/>
       <c r="M213" s="23"/>
       <c r="N213" s="23"/>
     </row>
-    <row r="214" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A214" s="41"/>
-      <c r="B214" s="27"/>
-      <c r="C214" s="27"/>
+    <row r="214" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A214" s="31"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
       <c r="D214" s="28"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
@@ -5876,15 +6213,15 @@
       <c r="H214" s="12"/>
       <c r="I214" s="31"/>
       <c r="J214" s="31"/>
-      <c r="K214" s="16"/>
+      <c r="K214" s="31"/>
       <c r="L214" s="21"/>
       <c r="M214" s="23"/>
       <c r="N214" s="23"/>
     </row>
-    <row r="215" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A215" s="41"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="27"/>
+    <row r="215" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A215" s="31"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
       <c r="D215" s="28"/>
       <c r="E215" s="16"/>
       <c r="F215" s="16"/>
@@ -5892,15 +6229,15 @@
       <c r="H215" s="12"/>
       <c r="I215" s="31"/>
       <c r="J215" s="31"/>
-      <c r="K215" s="16"/>
+      <c r="K215" s="31"/>
       <c r="L215" s="21"/>
       <c r="M215" s="23"/>
       <c r="N215" s="23"/>
     </row>
-    <row r="216" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A216" s="41"/>
-      <c r="B216" s="27"/>
-      <c r="C216" s="27"/>
+    <row r="216" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A216" s="31"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
       <c r="D216" s="28"/>
       <c r="E216" s="16"/>
       <c r="F216" s="16"/>
@@ -5908,15 +6245,15 @@
       <c r="H216" s="12"/>
       <c r="I216" s="31"/>
       <c r="J216" s="31"/>
-      <c r="K216" s="16"/>
+      <c r="K216" s="31"/>
       <c r="L216" s="21"/>
       <c r="M216" s="23"/>
       <c r="N216" s="23"/>
     </row>
-    <row r="217" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A217" s="41"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="27"/>
+    <row r="217" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A217" s="31"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
       <c r="D217" s="28"/>
       <c r="E217" s="16"/>
       <c r="F217" s="16"/>
@@ -5924,16 +6261,16 @@
       <c r="H217" s="12"/>
       <c r="I217" s="31"/>
       <c r="J217" s="31"/>
-      <c r="K217" s="16"/>
+      <c r="K217" s="31"/>
       <c r="L217" s="21"/>
       <c r="M217" s="23"/>
       <c r="N217" s="23"/>
     </row>
-    <row r="218" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="218" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A218" s="31"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
-      <c r="D218" s="14"/>
+      <c r="D218" s="28"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
       <c r="G218" s="14"/>
@@ -5945,11 +6282,11 @@
       <c r="M218" s="23"/>
       <c r="N218" s="23"/>
     </row>
-    <row r="219" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="219" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A219" s="31"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
-      <c r="D219" s="28"/>
+      <c r="D219" s="14"/>
       <c r="E219" s="16"/>
       <c r="F219" s="16"/>
       <c r="G219" s="14"/>
@@ -5961,7 +6298,7 @@
       <c r="M219" s="23"/>
       <c r="N219" s="23"/>
     </row>
-    <row r="220" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="220" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A220" s="31"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -5977,7 +6314,7 @@
       <c r="M220" s="23"/>
       <c r="N220" s="23"/>
     </row>
-    <row r="221" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="221" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A221" s="31"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -5993,7 +6330,7 @@
       <c r="M221" s="23"/>
       <c r="N221" s="23"/>
     </row>
-    <row r="222" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="222" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A222" s="31"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -6009,11 +6346,11 @@
       <c r="M222" s="23"/>
       <c r="N222" s="23"/>
     </row>
-    <row r="223" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="223" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A223" s="31"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
-      <c r="D223" s="28"/>
+      <c r="D223" s="14"/>
       <c r="E223" s="16"/>
       <c r="F223" s="16"/>
       <c r="G223" s="14"/>
@@ -6025,11 +6362,11 @@
       <c r="M223" s="23"/>
       <c r="N223" s="23"/>
     </row>
-    <row r="224" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="224" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A224" s="31"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
-      <c r="D224" s="28"/>
+      <c r="D224" s="14"/>
       <c r="E224" s="16"/>
       <c r="F224" s="16"/>
       <c r="G224" s="14"/>
@@ -6041,11 +6378,11 @@
       <c r="M224" s="23"/>
       <c r="N224" s="23"/>
     </row>
-    <row r="225" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="225" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A225" s="31"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
-      <c r="D225" s="28"/>
+      <c r="D225" s="14"/>
       <c r="E225" s="16"/>
       <c r="F225" s="16"/>
       <c r="G225" s="14"/>
@@ -6057,7 +6394,7 @@
       <c r="M225" s="23"/>
       <c r="N225" s="23"/>
     </row>
-    <row r="226" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="226" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A226" s="31"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -6073,7 +6410,7 @@
       <c r="M226" s="23"/>
       <c r="N226" s="23"/>
     </row>
-    <row r="227" spans="1:14" s="19" customFormat="1" ht="25.15" customHeight="1">
+    <row r="227" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
       <c r="A227" s="31"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -6189,7 +6526,7 @@
       <c r="A234" s="31"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
-      <c r="D234" s="28"/>
+      <c r="D234" s="14"/>
       <c r="E234" s="16"/>
       <c r="F234" s="16"/>
       <c r="G234" s="14"/>
@@ -6221,7 +6558,7 @@
       <c r="A236" s="31"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
-      <c r="D236" s="28"/>
+      <c r="D236" s="14"/>
       <c r="E236" s="16"/>
       <c r="F236" s="16"/>
       <c r="G236" s="14"/>
@@ -6237,7 +6574,7 @@
       <c r="A237" s="31"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
-      <c r="D237" s="28"/>
+      <c r="D237" s="14"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
       <c r="G237" s="14"/>
@@ -6253,7 +6590,7 @@
       <c r="A238" s="31"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
-      <c r="D238" s="28"/>
+      <c r="D238" s="14"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
       <c r="G238" s="14"/>
@@ -6317,7 +6654,7 @@
       <c r="A242" s="31"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
-      <c r="D242" s="28"/>
+      <c r="D242" s="14"/>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
       <c r="G242" s="14"/>
@@ -6333,7 +6670,7 @@
       <c r="A243" s="31"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
-      <c r="D243" s="28"/>
+      <c r="D243" s="14"/>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
       <c r="G243" s="14"/>
@@ -6397,7 +6734,7 @@
       <c r="A247" s="31"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
-      <c r="D247" s="28"/>
+      <c r="D247" s="14"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
       <c r="G247" s="14"/>
@@ -6429,7 +6766,7 @@
       <c r="A249" s="31"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
-      <c r="D249" s="28"/>
+      <c r="D249" s="14"/>
       <c r="E249" s="16"/>
       <c r="F249" s="16"/>
       <c r="G249" s="14"/>
@@ -6445,7 +6782,7 @@
       <c r="A250" s="31"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
-      <c r="D250" s="14"/>
+      <c r="D250" s="28"/>
       <c r="E250" s="16"/>
       <c r="F250" s="16"/>
       <c r="G250" s="14"/>
@@ -6461,7 +6798,7 @@
       <c r="A251" s="31"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
-      <c r="D251" s="14"/>
+      <c r="D251" s="28"/>
       <c r="E251" s="16"/>
       <c r="F251" s="16"/>
       <c r="G251" s="14"/>
@@ -6477,7 +6814,7 @@
       <c r="A252" s="31"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
-      <c r="D252" s="14"/>
+      <c r="D252" s="28"/>
       <c r="E252" s="16"/>
       <c r="F252" s="16"/>
       <c r="G252" s="14"/>
@@ -6493,7 +6830,7 @@
       <c r="A253" s="31"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
-      <c r="D253" s="14"/>
+      <c r="D253" s="28"/>
       <c r="E253" s="16"/>
       <c r="F253" s="16"/>
       <c r="G253" s="14"/>
@@ -6509,7 +6846,7 @@
       <c r="A254" s="31"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
-      <c r="D254" s="14"/>
+      <c r="D254" s="28"/>
       <c r="E254" s="16"/>
       <c r="F254" s="16"/>
       <c r="G254" s="14"/>
@@ -6525,7 +6862,7 @@
       <c r="A255" s="31"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
-      <c r="D255" s="14"/>
+      <c r="D255" s="28"/>
       <c r="E255" s="16"/>
       <c r="F255" s="16"/>
       <c r="G255" s="14"/>
@@ -6541,7 +6878,7 @@
       <c r="A256" s="31"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
-      <c r="D256" s="14"/>
+      <c r="D256" s="28"/>
       <c r="E256" s="16"/>
       <c r="F256" s="16"/>
       <c r="G256" s="14"/>
@@ -6573,7 +6910,7 @@
       <c r="A258" s="31"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
-      <c r="D258" s="14"/>
+      <c r="D258" s="28"/>
       <c r="E258" s="16"/>
       <c r="F258" s="16"/>
       <c r="G258" s="14"/>
@@ -6589,7 +6926,7 @@
       <c r="A259" s="31"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
-      <c r="D259" s="14"/>
+      <c r="D259" s="28"/>
       <c r="E259" s="16"/>
       <c r="F259" s="16"/>
       <c r="G259" s="14"/>
@@ -6621,7 +6958,7 @@
       <c r="A261" s="31"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
-      <c r="D261" s="28"/>
+      <c r="D261" s="14"/>
       <c r="E261" s="16"/>
       <c r="F261" s="16"/>
       <c r="G261" s="14"/>
@@ -6653,7 +6990,7 @@
       <c r="A263" s="31"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
-      <c r="D263" s="14"/>
+      <c r="D263" s="28"/>
       <c r="E263" s="16"/>
       <c r="F263" s="16"/>
       <c r="G263" s="14"/>
@@ -6685,7 +7022,7 @@
       <c r="A265" s="31"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
-      <c r="D265" s="14"/>
+      <c r="D265" s="28"/>
       <c r="E265" s="16"/>
       <c r="F265" s="16"/>
       <c r="G265" s="14"/>
@@ -6717,7 +7054,7 @@
       <c r="A267" s="31"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
-      <c r="D267" s="28"/>
+      <c r="D267" s="14"/>
       <c r="E267" s="16"/>
       <c r="F267" s="16"/>
       <c r="G267" s="14"/>
@@ -6877,7 +7214,7 @@
       <c r="A277" s="31"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
-      <c r="D277" s="14"/>
+      <c r="D277" s="28"/>
       <c r="E277" s="16"/>
       <c r="F277" s="16"/>
       <c r="G277" s="14"/>
@@ -6909,7 +7246,7 @@
       <c r="A279" s="31"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
-      <c r="D279" s="28"/>
+      <c r="D279" s="14"/>
       <c r="E279" s="16"/>
       <c r="F279" s="16"/>
       <c r="G279" s="14"/>
@@ -6954,7 +7291,7 @@
       <c r="N281" s="23"/>
     </row>
     <row r="282" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A282" s="31"/>
+      <c r="A282" s="8"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
       <c r="D282" s="28"/>
@@ -6970,10 +7307,10 @@
       <c r="N282" s="23"/>
     </row>
     <row r="283" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A283" s="31"/>
+      <c r="A283" s="8"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
-      <c r="D283" s="14"/>
+      <c r="D283" s="28"/>
       <c r="E283" s="16"/>
       <c r="F283" s="16"/>
       <c r="G283" s="14"/>
@@ -6986,7 +7323,7 @@
       <c r="N283" s="23"/>
     </row>
     <row r="284" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A284" s="31"/>
+      <c r="A284" s="8"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="D284" s="28"/>
@@ -7002,10 +7339,10 @@
       <c r="N284" s="23"/>
     </row>
     <row r="285" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A285" s="31"/>
+      <c r="A285" s="8"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
-      <c r="D285" s="28"/>
+      <c r="D285" s="14"/>
       <c r="E285" s="16"/>
       <c r="F285" s="16"/>
       <c r="G285" s="14"/>
@@ -7018,7 +7355,7 @@
       <c r="N285" s="23"/>
     </row>
     <row r="286" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A286" s="31"/>
+      <c r="A286" s="8"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="28"/>
@@ -7034,7 +7371,7 @@
       <c r="N286" s="23"/>
     </row>
     <row r="287" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A287" s="31"/>
+      <c r="A287" s="8"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
       <c r="D287" s="28"/>
@@ -7050,10 +7387,10 @@
       <c r="N287" s="23"/>
     </row>
     <row r="288" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A288" s="31"/>
+      <c r="A288" s="8"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
-      <c r="D288" s="28"/>
+      <c r="D288" s="14"/>
       <c r="E288" s="16"/>
       <c r="F288" s="16"/>
       <c r="G288" s="14"/>
@@ -7066,7 +7403,7 @@
       <c r="N288" s="23"/>
     </row>
     <row r="289" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A289" s="31"/>
+      <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
       <c r="D289" s="14"/>
@@ -7082,7 +7419,7 @@
       <c r="N289" s="23"/>
     </row>
     <row r="290" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A290" s="31"/>
+      <c r="A290" s="8"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
       <c r="D290" s="28"/>
@@ -7098,7 +7435,7 @@
       <c r="N290" s="23"/>
     </row>
     <row r="291" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A291" s="31"/>
+      <c r="A291" s="8"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
       <c r="D291" s="28"/>
@@ -7114,7 +7451,7 @@
       <c r="N291" s="23"/>
     </row>
     <row r="292" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A292" s="31"/>
+      <c r="A292" s="8"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="28"/>
@@ -7130,7 +7467,7 @@
       <c r="N292" s="23"/>
     </row>
     <row r="293" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A293" s="31"/>
+      <c r="A293" s="8"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="28"/>
@@ -7146,25 +7483,25 @@
       <c r="N293" s="23"/>
     </row>
     <row r="294" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A294" s="31"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="28"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="16"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="14"/>
       <c r="E294" s="16"/>
       <c r="F294" s="16"/>
       <c r="G294" s="14"/>
       <c r="H294" s="12"/>
       <c r="I294" s="31"/>
       <c r="J294" s="31"/>
-      <c r="K294" s="31"/>
+      <c r="K294" s="16"/>
       <c r="L294" s="21"/>
       <c r="M294" s="23"/>
       <c r="N294" s="23"/>
     </row>
     <row r="295" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A295" s="31"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
       <c r="D295" s="14"/>
       <c r="E295" s="16"/>
       <c r="F295" s="16"/>
@@ -7172,330 +7509,74 @@
       <c r="H295" s="12"/>
       <c r="I295" s="31"/>
       <c r="J295" s="31"/>
-      <c r="K295" s="31"/>
+      <c r="K295" s="16"/>
       <c r="L295" s="21"/>
       <c r="M295" s="23"/>
       <c r="N295" s="23"/>
     </row>
     <row r="296" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A296" s="31"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="28"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="14"/>
       <c r="E296" s="16"/>
       <c r="F296" s="16"/>
       <c r="G296" s="14"/>
       <c r="H296" s="12"/>
       <c r="I296" s="31"/>
       <c r="J296" s="31"/>
-      <c r="K296" s="31"/>
+      <c r="K296" s="16"/>
       <c r="L296" s="21"/>
       <c r="M296" s="23"/>
       <c r="N296" s="23"/>
     </row>
     <row r="297" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A297" s="31"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="28"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="16"/>
+      <c r="C297" s="16"/>
+      <c r="D297" s="14"/>
       <c r="E297" s="16"/>
       <c r="F297" s="16"/>
       <c r="G297" s="14"/>
       <c r="H297" s="12"/>
       <c r="I297" s="31"/>
       <c r="J297" s="31"/>
-      <c r="K297" s="31"/>
+      <c r="K297" s="16"/>
       <c r="L297" s="21"/>
       <c r="M297" s="23"/>
       <c r="N297" s="23"/>
     </row>
-    <row r="298" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="298" spans="1:14">
       <c r="A298" s="8"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="28"/>
+      <c r="B298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="14"/>
       <c r="E298" s="16"/>
       <c r="F298" s="16"/>
       <c r="G298" s="14"/>
       <c r="H298" s="12"/>
       <c r="I298" s="31"/>
       <c r="J298" s="31"/>
-      <c r="K298" s="31"/>
-      <c r="L298" s="21"/>
-      <c r="M298" s="23"/>
-      <c r="N298" s="23"/>
-    </row>
-    <row r="299" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
+      <c r="K298" s="16"/>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" s="8"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="28"/>
+      <c r="B299" s="16"/>
+      <c r="C299" s="16"/>
+      <c r="D299" s="14"/>
       <c r="E299" s="16"/>
       <c r="F299" s="16"/>
       <c r="G299" s="14"/>
       <c r="H299" s="12"/>
       <c r="I299" s="31"/>
       <c r="J299" s="31"/>
-      <c r="K299" s="31"/>
-      <c r="L299" s="21"/>
-      <c r="M299" s="23"/>
-      <c r="N299" s="23"/>
-    </row>
-    <row r="300" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A300" s="8"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="28"/>
-      <c r="E300" s="16"/>
-      <c r="F300" s="16"/>
-      <c r="G300" s="14"/>
-      <c r="H300" s="12"/>
-      <c r="I300" s="31"/>
-      <c r="J300" s="31"/>
-      <c r="K300" s="31"/>
-      <c r="L300" s="21"/>
-      <c r="M300" s="23"/>
-      <c r="N300" s="23"/>
-    </row>
-    <row r="301" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A301" s="8"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="14"/>
-      <c r="E301" s="16"/>
-      <c r="F301" s="16"/>
-      <c r="G301" s="14"/>
-      <c r="H301" s="12"/>
-      <c r="I301" s="31"/>
-      <c r="J301" s="31"/>
-      <c r="K301" s="31"/>
-      <c r="L301" s="21"/>
-      <c r="M301" s="23"/>
-      <c r="N301" s="23"/>
-    </row>
-    <row r="302" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A302" s="8"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="28"/>
-      <c r="E302" s="16"/>
-      <c r="F302" s="16"/>
-      <c r="G302" s="14"/>
-      <c r="H302" s="12"/>
-      <c r="I302" s="31"/>
-      <c r="J302" s="31"/>
-      <c r="K302" s="31"/>
-      <c r="L302" s="21"/>
-      <c r="M302" s="23"/>
-      <c r="N302" s="23"/>
-    </row>
-    <row r="303" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A303" s="8"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="28"/>
-      <c r="E303" s="16"/>
-      <c r="F303" s="16"/>
-      <c r="G303" s="14"/>
-      <c r="H303" s="12"/>
-      <c r="I303" s="31"/>
-      <c r="J303" s="31"/>
-      <c r="K303" s="31"/>
-      <c r="L303" s="21"/>
-      <c r="M303" s="23"/>
-      <c r="N303" s="23"/>
-    </row>
-    <row r="304" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A304" s="8"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="14"/>
-      <c r="E304" s="16"/>
-      <c r="F304" s="16"/>
-      <c r="G304" s="14"/>
-      <c r="H304" s="12"/>
-      <c r="I304" s="31"/>
-      <c r="J304" s="31"/>
-      <c r="K304" s="31"/>
-      <c r="L304" s="21"/>
-      <c r="M304" s="23"/>
-      <c r="N304" s="23"/>
-    </row>
-    <row r="305" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A305" s="8"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="D305" s="14"/>
-      <c r="E305" s="16"/>
-      <c r="F305" s="16"/>
-      <c r="G305" s="14"/>
-      <c r="H305" s="12"/>
-      <c r="I305" s="31"/>
-      <c r="J305" s="31"/>
-      <c r="K305" s="31"/>
-      <c r="L305" s="21"/>
-      <c r="M305" s="23"/>
-      <c r="N305" s="23"/>
-    </row>
-    <row r="306" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A306" s="8"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="28"/>
-      <c r="E306" s="16"/>
-      <c r="F306" s="16"/>
-      <c r="G306" s="14"/>
-      <c r="H306" s="12"/>
-      <c r="I306" s="31"/>
-      <c r="J306" s="31"/>
-      <c r="K306" s="31"/>
-      <c r="L306" s="21"/>
-      <c r="M306" s="23"/>
-      <c r="N306" s="23"/>
-    </row>
-    <row r="307" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A307" s="8"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="28"/>
-      <c r="E307" s="16"/>
-      <c r="F307" s="16"/>
-      <c r="G307" s="14"/>
-      <c r="H307" s="12"/>
-      <c r="I307" s="31"/>
-      <c r="J307" s="31"/>
-      <c r="K307" s="31"/>
-      <c r="L307" s="21"/>
-      <c r="M307" s="23"/>
-      <c r="N307" s="23"/>
-    </row>
-    <row r="308" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A308" s="8"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="28"/>
-      <c r="E308" s="16"/>
-      <c r="F308" s="16"/>
-      <c r="G308" s="14"/>
-      <c r="H308" s="12"/>
-      <c r="I308" s="31"/>
-      <c r="J308" s="31"/>
-      <c r="K308" s="31"/>
-      <c r="L308" s="21"/>
-      <c r="M308" s="23"/>
-      <c r="N308" s="23"/>
-    </row>
-    <row r="309" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A309" s="8"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="28"/>
-      <c r="E309" s="16"/>
-      <c r="F309" s="16"/>
-      <c r="G309" s="14"/>
-      <c r="H309" s="12"/>
-      <c r="I309" s="31"/>
-      <c r="J309" s="31"/>
-      <c r="K309" s="31"/>
-      <c r="L309" s="21"/>
-      <c r="M309" s="23"/>
-      <c r="N309" s="23"/>
-    </row>
-    <row r="310" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A310" s="8"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
-      <c r="D310" s="14"/>
-      <c r="E310" s="16"/>
-      <c r="F310" s="16"/>
-      <c r="G310" s="14"/>
-      <c r="H310" s="12"/>
-      <c r="I310" s="31"/>
-      <c r="J310" s="31"/>
-      <c r="K310" s="16"/>
-      <c r="L310" s="21"/>
-      <c r="M310" s="23"/>
-      <c r="N310" s="23"/>
-    </row>
-    <row r="311" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A311" s="8"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-      <c r="D311" s="14"/>
-      <c r="E311" s="16"/>
-      <c r="F311" s="16"/>
-      <c r="G311" s="14"/>
-      <c r="H311" s="12"/>
-      <c r="I311" s="31"/>
-      <c r="J311" s="31"/>
-      <c r="K311" s="16"/>
-      <c r="L311" s="21"/>
-      <c r="M311" s="23"/>
-      <c r="N311" s="23"/>
-    </row>
-    <row r="312" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A312" s="8"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
-      <c r="D312" s="14"/>
-      <c r="E312" s="16"/>
-      <c r="F312" s="16"/>
-      <c r="G312" s="14"/>
-      <c r="H312" s="12"/>
-      <c r="I312" s="31"/>
-      <c r="J312" s="31"/>
-      <c r="K312" s="16"/>
-      <c r="L312" s="21"/>
-      <c r="M312" s="23"/>
-      <c r="N312" s="23"/>
-    </row>
-    <row r="313" spans="1:14" s="18" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A313" s="8"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-      <c r="D313" s="14"/>
-      <c r="E313" s="16"/>
-      <c r="F313" s="16"/>
-      <c r="G313" s="14"/>
-      <c r="H313" s="12"/>
-      <c r="I313" s="31"/>
-      <c r="J313" s="31"/>
-      <c r="K313" s="16"/>
-      <c r="L313" s="21"/>
-      <c r="M313" s="23"/>
-      <c r="N313" s="23"/>
-    </row>
-    <row r="314" spans="1:14">
-      <c r="A314" s="8"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
-      <c r="D314" s="14"/>
-      <c r="E314" s="16"/>
-      <c r="F314" s="16"/>
-      <c r="G314" s="14"/>
-      <c r="H314" s="12"/>
-      <c r="I314" s="31"/>
-      <c r="J314" s="31"/>
-      <c r="K314" s="16"/>
-    </row>
-    <row r="315" spans="1:14">
-      <c r="A315" s="8"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="14"/>
-      <c r="E315" s="16"/>
-      <c r="F315" s="16"/>
-      <c r="G315" s="14"/>
-      <c r="H315" s="12"/>
-      <c r="I315" s="31"/>
-      <c r="J315" s="31"/>
-      <c r="K315" s="16"/>
+      <c r="K299" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L56"/>
+  <autoFilter ref="A2:L46"/>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G198">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G182">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>
@@ -7538,7 +7619,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7597,11 +7678,11 @@
         <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="15"/>
@@ -7627,11 +7708,11 @@
         <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15"/>
@@ -7657,11 +7738,11 @@
         <v>16</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="15"/>
@@ -7687,11 +7768,11 @@
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="15"/>
@@ -7717,11 +7798,11 @@
         <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="15"/>

--- a/doc/04.Schedule/工作计划.xlsx
+++ b/doc/04.Schedule/工作计划.xlsx
@@ -15,10 +15,10 @@
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$1:$L$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$1:$L$100</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -34,6 +34,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>销量、产能、质量、成本、库存、管理基础</t>
@@ -56,6 +57,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>王斌坚:在必须</t>
@@ -64,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="260">
   <si>
     <t>编号</t>
   </si>
@@ -658,324 +661,303 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员委托数据和财务交割单数据导入修改优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖操作判断修改/导入默认路径保存/</t>
+    <t>交易员委托数据维护</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息增加账户负责人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表字段增加/管理画面处理修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票投资决策流程试用问题修改完善</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>及时解决试用过程中出现的问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员相关数据和财务核算相关数据月结</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户/股票/交易员的资金/持仓/收益相关数据月结</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>数据维护</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员委托数据维护</t>
+    <t>交易员和财务相关资金/持仓/收益相关报表修改优化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>各报表格式和数据核算（基于月结数据）修改调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据月结</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结功能需求整理分析及数据库表设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、月结需求的进一步梳理分析
+2、明确需求后进行相关数据库表设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资交易管理系统</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资交易管理系统开发计划</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>计划完成
+时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成
+时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策流程权限控制Bug修改和决策操作便捷改善</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策操作记录的决策投票画面增加管理员一票决定权处理。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单的第一步操作记录执行后，第二步对应操作记录的决策投票时，管理员可选择一票确定处理。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表开发及对应问题修改。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、对投资主体下属账号的个股票的盈亏持仓进行统计，并合计至各对应主体。
+2、修改投资主体持仓市值和净收益合计不正确的问题。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1、增加交易日期/交易时间/所属账户字段可修改
 2、交易数据查询页面默认显示数据修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户信息增加账户负责人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库表字段增加/管理画面处理修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加决策股票池和决策委员会变更日志</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加相应日志表和管理画面处理修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资决策</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票投资决策流程试用问题修改完善</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>及时解决试用过程中出现的问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员相关数据和财务核算相关数据月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户/股票/交易员的资金/持仓/收益相关数据月结</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员和财务相关资金/持仓/收益相关报表修改优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>各报表格式和数据核算（基于月结数据）修改调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表修改完善。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策申请管理画面完善</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策申请单列表中显示对应操作状态（决策投资和准确度评定）。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策操作记录的交易记录关联画面完善</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>决策操作记录的交易记录关联画面增加选择记录的合计交易数据（数量/金额等）。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔日短差/波段/目标 每日股票交易表示曲线图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>符合需求的chart组件使用调查及实现</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结功能需求整理分析及数据库表设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、月结需求的进一步梳理分析
-2、明确需求后进行相关数据库表设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资交易管理系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资交易管理系统开发计划</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户仓位配置规划表修改完善。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体收益核算包含国债逆回购，持仓和股票明细中不包含国债逆回购。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策股票池变更日志</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加变更日志画面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改完成</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易模块的收益报表修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有报表中的累计收益、收益率核算修改为本年度的收益和收益率</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资决策申请管理画面完善</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资决策申请单列表中显示对应操作状态（决策投资和准确度评定）。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策操作记录的交易记录关联画面完善</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据和财务交割单数据导入修改优化</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消账户信息默认选中/买卖操作判断修改/导入默认路径保存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据维护</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1、增加交易日期/所属账户字段可修改
 2、交易数据查询页面默认显示数据修改</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资决策流程权限控制Bug修改和决策操作便捷改善</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>决策操作记录的决策投票画面增加管理员一票决定权处理。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单的第一步操作记录执行后，第二步对应操作记录的决策投票时，管理员可选择一票确定处理。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户仓位配置规划表开发及对应问题修改。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、对投资主体下属账号的个股票的盈亏持仓进行统计，并合计至各对应主体。
-2、修改投资主体持仓市值和净收益合计不正确的问题。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表修改完善。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体收益核算包含国债逆回购，持仓和股票明细中不包含国债逆回购。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策股票池变更日志</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加变更日志画面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易模块的收益报表修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有报表中的累计收益、收益率核算修改为本年度的收益和收益率</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易数据和财务交割单导入数据模板增加及修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加海通证券普通账户数据导入模板，修改国泰信用/招商普通/华泰信用/华泰普通/方正普通数据导入模板</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王海</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资决策</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改原有持仓股票分析决策为持仓个股投资计划</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据画面说明文档重新设计数据库表
+2、界面修改及后台处理开发</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易数据和财务交割单导入画面修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入完成画面增加 总记录数/导入记录数/忽略记录数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔日短差/波段/目标 每日股票交易表示曲线图</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合需求的chart组件使用调查及实现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>1、账户配置规划表样式颜色字体设置。
 2、增加投资主体的资金信息表，并在账户管理画面增加投资主题的资金信息录入修改处理
-3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主题资金信息表中的数据。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消账户信息默认选中/买卖操作判断修改/导入默认路径保存/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>计划完成
-时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成
-时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易数据和财务交割单导入数据模板增加及修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加海通证券普通账户数据导入模板，修改国泰信用/招商普通/华泰信用/华泰普通/方正普通数据导入模板</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>王海</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资决策</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改原有持仓股票分析决策为持仓个股投资计划</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易数据和财务交割单导入画面修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入完成画面增加 总记录数/导入记录数/忽略记录数</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、根据画面说明文档重新设计数据库表
-2、界面修改及后台处理开发</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主体资金信息表中的数据。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -993,34 +975,40 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1028,11 +1016,13 @@
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1044,11 +1034,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1167,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1302,15 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1629,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT268"/>
+  <dimension ref="A1:AT266"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A56" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
@@ -1658,7 +1641,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1691,11 +1674,11 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>255</v>
+      <c r="I2" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>222</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>8</v>
@@ -1715,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -2199,7 +2182,7 @@
       <c r="F16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="50" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="10"/>
@@ -2241,7 +2224,7 @@
       <c r="H17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="47">
         <v>42653</v>
       </c>
       <c r="J17" s="38">
@@ -2309,7 +2292,7 @@
       <c r="F19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -2915,10 +2898,10 @@
       <c r="H35" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="48">
         <v>42720</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="48">
         <v>42720</v>
       </c>
       <c r="K35" s="44" t="s">
@@ -3067,10 +3050,10 @@
       <c r="H39" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="48">
         <v>42727</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="48">
         <v>42727</v>
       </c>
       <c r="K39" s="44" t="s">
@@ -3105,10 +3088,10 @@
       <c r="H40" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="48">
         <v>42731</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="48">
         <v>42731</v>
       </c>
       <c r="K40" s="44" t="s">
@@ -3118,823 +3101,825 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="46" customFormat="1" ht="23.25" customHeight="1">
+    <row r="41" spans="1:46" s="15" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="39" t="s">
+      <c r="B41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="51">
+      <c r="G41" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="38">
         <v>42738</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="38">
         <v>42738</v>
       </c>
-      <c r="K41" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="44" t="s">
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="46" customFormat="1" ht="39" customHeight="1">
+    <row r="42" spans="1:46" s="15" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="39" t="s">
+      <c r="B42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="I42" s="51">
+      <c r="G42" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" s="38">
         <v>42739</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="38">
         <v>42739</v>
       </c>
-      <c r="K42" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="44" t="s">
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:46" s="46" customFormat="1" ht="72" customHeight="1">
+      <c r="N42" s="18"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="18"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="16"/>
+      <c r="AS42" s="20"/>
+      <c r="AT42" s="20"/>
+    </row>
+    <row r="43" spans="1:46" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="39" t="s">
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H43" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="I43" s="51">
-        <v>42739</v>
-      </c>
-      <c r="J43" s="51">
-        <v>42739</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="44" t="s">
+      <c r="I43" s="38">
+        <v>42740</v>
+      </c>
+      <c r="J43" s="38">
+        <v>42740</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="47"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
-      <c r="AM43" s="45"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="45"/>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="45"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="45"/>
-      <c r="AT43" s="45"/>
-    </row>
-    <row r="44" spans="1:46" s="46" customFormat="1" ht="80.25" customHeight="1">
+      <c r="N43" s="18"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="18"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="20"/>
+      <c r="AT43" s="20"/>
+    </row>
+    <row r="44" spans="1:46" s="15" customFormat="1" ht="66.75" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="39" t="s">
+      <c r="B44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="I44" s="51">
-        <v>42740</v>
-      </c>
-      <c r="J44" s="51">
-        <v>42740</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="44" t="s">
+      <c r="G44" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" s="38">
+        <v>42741</v>
+      </c>
+      <c r="J44" s="38">
+        <v>42741</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="47"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
-      <c r="AO44" s="45"/>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="45"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="45"/>
-      <c r="AT44" s="45"/>
-    </row>
-    <row r="45" spans="1:46" s="46" customFormat="1" ht="78.75" customHeight="1">
+      <c r="N44" s="18"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="18"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="16"/>
+      <c r="AS44" s="20"/>
+      <c r="AT44" s="20"/>
+    </row>
+    <row r="45" spans="1:46" s="15" customFormat="1" ht="126.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" s="39" t="s">
+      <c r="B45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" s="51">
+      <c r="G45" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="38">
         <v>42741</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="38">
         <v>42741</v>
       </c>
-      <c r="K45" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="44" t="s">
+      <c r="K45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="47"/>
-      <c r="Z45" s="48"/>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="48"/>
-      <c r="AF45" s="48"/>
-      <c r="AG45" s="48"/>
-      <c r="AH45" s="48"/>
-      <c r="AI45" s="48"/>
-      <c r="AJ45" s="48"/>
-      <c r="AK45" s="48"/>
-      <c r="AL45" s="48"/>
-      <c r="AM45" s="45"/>
-      <c r="AN45" s="45"/>
-      <c r="AO45" s="45"/>
-      <c r="AP45" s="45"/>
-      <c r="AQ45" s="45"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="45"/>
-      <c r="AT45" s="45"/>
-    </row>
-    <row r="46" spans="1:46" s="46" customFormat="1" ht="119.25" customHeight="1">
+      <c r="N45" s="18"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="18"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="16"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+    </row>
+    <row r="46" spans="1:46" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="39" t="s">
+      <c r="B46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" s="51">
-        <v>42741</v>
-      </c>
-      <c r="J46" s="51">
-        <v>42741</v>
-      </c>
-      <c r="K46" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="44" t="s">
+      <c r="G46" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="38">
+        <v>42744</v>
+      </c>
+      <c r="J46" s="38">
+        <v>42744</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="47"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48"/>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
-      <c r="AI46" s="48"/>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="48"/>
-      <c r="AL46" s="48"/>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="45"/>
-      <c r="AP46" s="45"/>
-      <c r="AQ46" s="45"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="45"/>
-      <c r="AT46" s="45"/>
-    </row>
-    <row r="47" spans="1:46" s="46" customFormat="1" ht="38.25" customHeight="1">
+    </row>
+    <row r="47" spans="1:46" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="39" t="s">
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" s="51">
+      <c r="G47" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="38">
+        <v>42745</v>
+      </c>
+      <c r="J47" s="38">
         <v>42744</v>
       </c>
-      <c r="J47" s="51">
-        <v>42744</v>
-      </c>
-      <c r="K47" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="44" t="s">
+      <c r="K47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="48" spans="1:46" s="15" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="39" t="s">
+      <c r="B48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="I48" s="51">
+      <c r="G48" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I48" s="38">
+        <v>42746</v>
+      </c>
+      <c r="J48" s="38">
         <v>42745</v>
       </c>
-      <c r="J48" s="51">
-        <v>42744</v>
-      </c>
-      <c r="K48" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="44" t="s">
+      <c r="K48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="46" customFormat="1" ht="49.5" customHeight="1">
+    <row r="49" spans="1:14" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="39" t="s">
+      <c r="B49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="I49" s="51">
-        <v>42746</v>
-      </c>
-      <c r="J49" s="51">
-        <v>42745</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="44" t="s">
+      <c r="G49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="38">
+        <v>42747</v>
+      </c>
+      <c r="J49" s="38">
+        <v>42747</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="50" spans="1:14" s="15" customFormat="1" ht="42" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="39" t="s">
+      <c r="B50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I50" s="51">
-        <v>42747</v>
-      </c>
-      <c r="J50" s="51">
-        <v>42747</v>
-      </c>
-      <c r="K50" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="44" t="s">
+      <c r="G50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I50" s="38">
+        <v>42748</v>
+      </c>
+      <c r="J50" s="38">
+        <v>42748</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="51" spans="1:14" s="15" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="39" t="s">
+      <c r="B51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="I51" s="51">
-        <v>42748</v>
-      </c>
-      <c r="J51" s="51">
-        <v>42748</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="44" t="s">
+      <c r="G51" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="38">
+        <v>42751</v>
+      </c>
+      <c r="J51" s="38">
+        <v>42751</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" s="46" customFormat="1" ht="63" customHeight="1">
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+    </row>
+    <row r="52" spans="1:14" s="15" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="39" t="s">
+      <c r="B52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="I52" s="51">
-        <v>42748</v>
-      </c>
-      <c r="J52" s="51">
-        <v>42748</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="44" t="s">
+      <c r="G52" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I52" s="38">
+        <v>42752</v>
+      </c>
+      <c r="J52" s="38">
+        <v>42752</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+    </row>
+    <row r="53" spans="1:14" s="15" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="39" t="s">
+      <c r="B53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="I53" s="51">
-        <v>42751</v>
-      </c>
-      <c r="J53" s="51">
-        <v>42751</v>
-      </c>
-      <c r="K53" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="44" t="s">
+      <c r="G53" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" s="38">
+        <v>42755</v>
+      </c>
+      <c r="J53" s="38">
+        <v>42755</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-    </row>
-    <row r="54" spans="1:14" s="46" customFormat="1" ht="32.25" customHeight="1">
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+    </row>
+    <row r="54" spans="1:14" s="15" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="I54" s="51">
-        <v>42752</v>
-      </c>
-      <c r="J54" s="51">
-        <v>42752</v>
-      </c>
-      <c r="K54" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="44" t="s">
+      <c r="B54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I54" s="38">
+        <v>42755</v>
+      </c>
+      <c r="J54" s="38">
+        <v>42755</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-    </row>
-    <row r="55" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+    </row>
+    <row r="55" spans="1:14" s="15" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="39" t="s">
+      <c r="B55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I55" s="51">
-        <v>42755</v>
-      </c>
-      <c r="J55" s="51">
-        <v>42755</v>
-      </c>
-      <c r="K55" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-    </row>
-    <row r="56" spans="1:14" s="46" customFormat="1" ht="54" customHeight="1">
+      <c r="G55" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I55" s="38">
+        <v>42773</v>
+      </c>
+      <c r="J55" s="38">
+        <v>42773</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+    </row>
+    <row r="56" spans="1:14" s="15" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="I56" s="51">
-        <v>42755</v>
-      </c>
-      <c r="J56" s="51">
-        <v>42755</v>
-      </c>
-      <c r="K56" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="44" t="s">
+      <c r="B56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I56" s="38">
+        <v>42775</v>
+      </c>
+      <c r="J56" s="38">
+        <v>42775</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-    </row>
-    <row r="57" spans="1:14" s="46" customFormat="1" ht="62.25" customHeight="1">
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+    </row>
+    <row r="57" spans="1:14" s="15" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F57" s="39" t="s">
+      <c r="B57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I57" s="51">
-        <v>42773</v>
-      </c>
-      <c r="J57" s="51">
-        <v>42773</v>
-      </c>
-      <c r="K57" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-    </row>
-    <row r="58" spans="1:14" s="46" customFormat="1" ht="41.25" customHeight="1">
+      <c r="G57" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I57" s="38">
+        <v>42775</v>
+      </c>
+      <c r="J57" s="38">
+        <v>42775</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+    </row>
+    <row r="58" spans="1:14" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="39" t="s">
+      <c r="B58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="51">
-        <v>42775</v>
-      </c>
-      <c r="J58" s="51">
-        <v>42775</v>
-      </c>
-      <c r="K58" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="44" t="s">
+      <c r="G58" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="12">
+        <v>42780</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
     </row>
     <row r="59" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B59" s="39" t="s">
         <v>11</v>
@@ -3946,35 +3931,33 @@
         <v>13</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" s="51">
-        <v>42775</v>
-      </c>
-      <c r="J59" s="51">
-        <v>42775</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="I59" s="42">
+        <v>42783</v>
+      </c>
+      <c r="J59" s="42"/>
       <c r="K59" s="44" t="s">
         <v>18</v>
       </c>
       <c r="L59" s="44" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="M59" s="45"/>
       <c r="N59" s="45"/>
     </row>
-    <row r="60" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="60" spans="1:14" s="46" customFormat="1" ht="48.75" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>11</v>
@@ -3986,21 +3969,21 @@
         <v>13</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I60" s="42">
-        <v>42780</v>
-      </c>
-      <c r="J60" s="42"/>
+        <v>42804</v>
+      </c>
+      <c r="J60" s="43"/>
       <c r="K60" s="44" t="s">
         <v>18</v>
       </c>
@@ -4010,9 +3993,9 @@
       <c r="M60" s="45"/>
       <c r="N60" s="45"/>
     </row>
-    <row r="61" spans="1:14" s="46" customFormat="1" ht="38.25" customHeight="1">
+    <row r="61" spans="1:14" s="46" customFormat="1" ht="66" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B61" s="39" t="s">
         <v>11</v>
@@ -4024,21 +4007,21 @@
         <v>13</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F61" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="I61" s="42">
-        <v>42783</v>
-      </c>
-      <c r="J61" s="42"/>
+        <v>42825</v>
+      </c>
+      <c r="J61" s="44"/>
       <c r="K61" s="44" t="s">
         <v>18</v>
       </c>
@@ -4048,85 +4031,77 @@
       <c r="M61" s="45"/>
       <c r="N61" s="45"/>
     </row>
-    <row r="62" spans="1:14" s="46" customFormat="1" ht="81.75" customHeight="1">
-      <c r="A62" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="F62" s="39" t="s">
+    <row r="62" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I62" s="42">
-        <v>42804</v>
-      </c>
-      <c r="J62" s="43"/>
-      <c r="K62" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="44" t="s">
+      <c r="G62" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-    </row>
-    <row r="63" spans="1:14" s="46" customFormat="1" ht="108" customHeight="1">
-      <c r="A63" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="39" t="s">
+    </row>
+    <row r="63" spans="1:14" ht="25.15" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="I63" s="42">
-        <v>42825</v>
-      </c>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="44" t="s">
+      <c r="G63" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I63" s="12"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-    </row>
-    <row r="64" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A64" s="49" t="s">
-        <v>233</v>
+    </row>
+    <row r="64" spans="1:14" s="15" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -4138,16 +4113,16 @@
         <v>13</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="27"/>
@@ -4159,8 +4134,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A65" s="49" t="s">
-        <v>234</v>
+      <c r="A65" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
@@ -4172,29 +4147,27 @@
         <v>13</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>133</v>
+      <c r="G65" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I65" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="I65" s="27"/>
       <c r="J65" s="27"/>
       <c r="K65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A66" s="49" t="s">
-        <v>235</v>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>11</v>
@@ -4206,29 +4179,27 @@
         <v>13</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I66" s="12"/>
-      <c r="J66" s="27"/>
+        <v>75</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
       <c r="K66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A67" s="49" t="s">
-        <v>236</v>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>11</v>
@@ -4240,27 +4211,27 @@
         <v>13</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="23" t="s">
-        <v>70</v>
+      <c r="G67" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+        <v>78</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
       <c r="K67" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L67" s="13"/>
     </row>
     <row r="68" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A68" s="49" t="s">
-        <v>237</v>
+      <c r="A68" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>11</v>
@@ -4272,27 +4243,25 @@
         <v>13</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+        <v>81</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A69" s="49" t="s">
-        <v>238</v>
+    <row r="69" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>11</v>
@@ -4304,27 +4273,25 @@
         <v>13</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="G69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A70" s="49" t="s">
-        <v>239</v>
+    <row r="70" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>11</v>
@@ -4336,13 +4303,13 @@
         <v>13</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="22" t="s">
-        <v>81</v>
+      <c r="G70" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="27"/>
@@ -4352,9 +4319,9 @@
       </c>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A71" s="49" t="s">
-        <v>240</v>
+    <row r="71" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>11</v>
@@ -4372,19 +4339,19 @@
         <v>15</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H71" s="10"/>
-      <c r="I71" s="12"/>
+      <c r="I71" s="27"/>
       <c r="J71" s="27"/>
       <c r="K71" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A72" s="49" t="s">
-        <v>241</v>
+    <row r="72" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>11</v>
@@ -4402,19 +4369,21 @@
         <v>15</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="27"/>
+        <v>89</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="12"/>
       <c r="J72" s="27"/>
       <c r="K72" s="13" t="s">
         <v>18</v>
       </c>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A73" s="49" t="s">
-        <v>242</v>
+    <row r="73" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>11</v>
@@ -4426,16 +4395,16 @@
         <v>13</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>87</v>
+      <c r="G73" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="H73" s="10"/>
-      <c r="I73" s="27"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="27"/>
       <c r="K73" s="13" t="s">
         <v>18</v>
@@ -4443,8 +4412,8 @@
       <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A74" s="49" t="s">
-        <v>243</v>
+      <c r="A74" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>11</v>
@@ -4456,18 +4425,16 @@
         <v>13</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="12"/>
+      <c r="G74" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="I74" s="29"/>
       <c r="J74" s="27"/>
       <c r="K74" s="13" t="s">
         <v>18</v>
@@ -4475,8 +4442,8 @@
       <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A75" s="49" t="s">
-        <v>244</v>
+      <c r="A75" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>11</v>
@@ -4488,13 +4455,13 @@
         <v>13</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="22" t="s">
-        <v>93</v>
+      <c r="G75" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="H75" s="10"/>
       <c r="I75" s="12"/>
@@ -4505,8 +4472,8 @@
       <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A76" s="49" t="s">
-        <v>245</v>
+      <c r="A76" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>11</v>
@@ -4518,16 +4485,16 @@
         <v>13</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="22" t="s">
-        <v>95</v>
+      <c r="G76" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="H76" s="10"/>
-      <c r="I76" s="29"/>
+      <c r="I76" s="27"/>
       <c r="J76" s="27"/>
       <c r="K76" s="13" t="s">
         <v>18</v>
@@ -4535,8 +4502,8 @@
       <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A77" s="49" t="s">
-        <v>246</v>
+      <c r="A77" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>11</v>
@@ -4553,8 +4520,8 @@
       <c r="F77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="11" t="s">
-        <v>97</v>
+      <c r="G77" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="12"/>
@@ -4564,69 +4531,41 @@
       </c>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A78" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>100</v>
-      </c>
+    <row r="78" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="10"/>
       <c r="I78" s="27"/>
       <c r="J78" s="27"/>
-      <c r="K78" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="K78" s="13"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A79" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>102</v>
-      </c>
+    <row r="79" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="10"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="27"/>
       <c r="J79" s="27"/>
-      <c r="K79" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A80" s="49" t="s">
-        <v>249</v>
+      <c r="A80" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4641,8 +4580,8 @@
       <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A81" s="49" t="s">
-        <v>250</v>
+      <c r="A81" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4657,8 +4596,8 @@
       <c r="L81" s="13"/>
     </row>
     <row r="82" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A82" s="49" t="s">
-        <v>251</v>
+      <c r="A82" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4673,9 +4612,7 @@
       <c r="L82" s="13"/>
     </row>
     <row r="83" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A83" s="49" t="s">
-        <v>252</v>
-      </c>
+      <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="25"/>
@@ -4689,9 +4626,7 @@
       <c r="L83" s="13"/>
     </row>
     <row r="84" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A84" s="49" t="s">
-        <v>253</v>
-      </c>
+      <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="25"/>
@@ -5376,7 +5311,7 @@
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="133" spans="1:12" ht="25.15" customHeight="1">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5390,11 +5325,11 @@
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="134" spans="1:12" ht="25.15" customHeight="1">
       <c r="A134" s="8"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="25"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="11"/>
@@ -5406,9 +5341,9 @@
     </row>
     <row r="135" spans="1:12" ht="25.15" customHeight="1">
       <c r="A135" s="8"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="25"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="11"/>
@@ -5448,9 +5383,9 @@
     </row>
     <row r="138" spans="1:12" ht="25.15" customHeight="1">
       <c r="A138" s="8"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="11"/>
@@ -5478,7 +5413,7 @@
       <c r="A140" s="8"/>
       <c r="B140" s="24"/>
       <c r="C140" s="24"/>
-      <c r="D140" s="24"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="11"/>
@@ -5492,7 +5427,7 @@
       <c r="A141" s="8"/>
       <c r="B141" s="24"/>
       <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
+      <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="11"/>
@@ -5503,24 +5438,23 @@
       <c r="L141" s="13"/>
     </row>
     <row r="142" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A142" s="8"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="31"/>
     </row>
     <row r="143" spans="1:12" ht="25.15" customHeight="1">
       <c r="A143" s="8"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
-      <c r="D143" s="13"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="11"/>
@@ -5528,33 +5462,32 @@
       <c r="I143" s="27"/>
       <c r="J143" s="27"/>
       <c r="K143" s="13"/>
-      <c r="L143" s="13"/>
     </row>
     <row r="144" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A144" s="30"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="36"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="31"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
     </row>
     <row r="145" spans="1:12" ht="25.15" customHeight="1">
       <c r="A145" s="8"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="11"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="35"/>
       <c r="H145" s="10"/>
       <c r="I145" s="27"/>
       <c r="J145" s="27"/>
-      <c r="K145" s="13"/>
+      <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:12" ht="25.15" customHeight="1">
       <c r="A146" s="8"/>
@@ -5569,7 +5502,7 @@
       <c r="J146" s="27"/>
       <c r="K146" s="27"/>
     </row>
-    <row r="147" spans="1:12" ht="25.15" customHeight="1">
+    <row r="147" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5581,8 +5514,9 @@
       <c r="I147" s="27"/>
       <c r="J147" s="27"/>
       <c r="K147" s="27"/>
-    </row>
-    <row r="148" spans="1:12" ht="25.15" customHeight="1">
+      <c r="L147" s="18"/>
+    </row>
+    <row r="148" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5594,6 +5528,7 @@
       <c r="I148" s="27"/>
       <c r="J148" s="27"/>
       <c r="K148" s="27"/>
+      <c r="L148" s="18"/>
     </row>
     <row r="149" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A149" s="8"/>
@@ -5614,13 +5549,13 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="25"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="35"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="10"/>
       <c r="I150" s="27"/>
       <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
+      <c r="K150" s="13"/>
       <c r="L150" s="18"/>
     </row>
     <row r="151" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
@@ -5628,13 +5563,13 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="25"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="34"/>
-      <c r="G151" s="35"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="10"/>
       <c r="I151" s="27"/>
       <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="18"/>
     </row>
     <row r="152" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
@@ -5680,10 +5615,10 @@
       <c r="L154" s="18"/>
     </row>
     <row r="155" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A155" s="8"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="25"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
       <c r="G155" s="11"/>
@@ -5694,9 +5629,9 @@
       <c r="L155" s="18"/>
     </row>
     <row r="156" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A156" s="8"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
       <c r="D156" s="25"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
@@ -5711,7 +5646,7 @@
       <c r="A157" s="37"/>
       <c r="B157" s="24"/>
       <c r="C157" s="24"/>
-      <c r="D157" s="11"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
       <c r="G157" s="11"/>
@@ -5725,7 +5660,7 @@
       <c r="A158" s="37"/>
       <c r="B158" s="24"/>
       <c r="C158" s="24"/>
-      <c r="D158" s="25"/>
+      <c r="D158" s="11"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
       <c r="G158" s="11"/>
@@ -5739,7 +5674,7 @@
       <c r="A159" s="37"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
-      <c r="D159" s="25"/>
+      <c r="D159" s="11"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
       <c r="G159" s="11"/>
@@ -5767,7 +5702,7 @@
       <c r="A161" s="37"/>
       <c r="B161" s="24"/>
       <c r="C161" s="24"/>
-      <c r="D161" s="11"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
       <c r="G161" s="11"/>
@@ -5781,7 +5716,7 @@
       <c r="A162" s="37"/>
       <c r="B162" s="24"/>
       <c r="C162" s="24"/>
-      <c r="D162" s="11"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
       <c r="G162" s="11"/>
@@ -5876,23 +5811,23 @@
       <c r="L168" s="18"/>
     </row>
     <row r="169" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A169" s="37"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="25"/>
+      <c r="A169" s="27"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="11"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
       <c r="G169" s="11"/>
       <c r="H169" s="10"/>
       <c r="I169" s="27"/>
       <c r="J169" s="27"/>
-      <c r="K169" s="13"/>
+      <c r="K169" s="27"/>
       <c r="L169" s="18"/>
     </row>
     <row r="170" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A170" s="37"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
+      <c r="A170" s="27"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="25"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
@@ -5900,14 +5835,14 @@
       <c r="H170" s="10"/>
       <c r="I170" s="27"/>
       <c r="J170" s="27"/>
-      <c r="K170" s="13"/>
+      <c r="K170" s="27"/>
       <c r="L170" s="18"/>
     </row>
     <row r="171" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A171" s="27"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="11"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
       <c r="G171" s="11"/>
@@ -6015,7 +5950,7 @@
       <c r="K178" s="27"/>
       <c r="L178" s="18"/>
     </row>
-    <row r="179" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="179" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A179" s="27"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6029,7 +5964,7 @@
       <c r="K179" s="27"/>
       <c r="L179" s="18"/>
     </row>
-    <row r="180" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="180" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A180" s="27"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6117,7 +6052,7 @@
       <c r="A186" s="27"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
-      <c r="D186" s="25"/>
+      <c r="D186" s="11"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
       <c r="G186" s="11"/>
@@ -6145,7 +6080,7 @@
       <c r="A188" s="27"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
-      <c r="D188" s="11"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
       <c r="G188" s="11"/>
@@ -6173,7 +6108,7 @@
       <c r="A190" s="27"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
-      <c r="D190" s="25"/>
+      <c r="D190" s="11"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
       <c r="G190" s="11"/>
@@ -6187,7 +6122,7 @@
       <c r="A191" s="27"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
-      <c r="D191" s="25"/>
+      <c r="D191" s="11"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
       <c r="G191" s="11"/>
@@ -6215,7 +6150,7 @@
       <c r="A193" s="27"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
-      <c r="D193" s="11"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
       <c r="G193" s="11"/>
@@ -6229,7 +6164,7 @@
       <c r="A194" s="27"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
-      <c r="D194" s="11"/>
+      <c r="D194" s="25"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
       <c r="G194" s="11"/>
@@ -6327,7 +6262,7 @@
       <c r="A201" s="27"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
-      <c r="D201" s="25"/>
+      <c r="D201" s="11"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
       <c r="G201" s="11"/>
@@ -6341,7 +6276,7 @@
       <c r="A202" s="27"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
-      <c r="D202" s="25"/>
+      <c r="D202" s="11"/>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
       <c r="G202" s="11"/>
@@ -6467,7 +6402,7 @@
       <c r="A211" s="27"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
-      <c r="D211" s="11"/>
+      <c r="D211" s="25"/>
       <c r="E211" s="13"/>
       <c r="F211" s="13"/>
       <c r="G211" s="11"/>
@@ -6481,7 +6416,7 @@
       <c r="A212" s="27"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
-      <c r="D212" s="11"/>
+      <c r="D212" s="25"/>
       <c r="E212" s="13"/>
       <c r="F212" s="13"/>
       <c r="G212" s="11"/>
@@ -6509,7 +6444,7 @@
       <c r="A214" s="27"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
-      <c r="D214" s="25"/>
+      <c r="D214" s="11"/>
       <c r="E214" s="13"/>
       <c r="F214" s="13"/>
       <c r="G214" s="11"/>
@@ -6565,7 +6500,7 @@
       <c r="A218" s="27"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
-      <c r="D218" s="11"/>
+      <c r="D218" s="25"/>
       <c r="E218" s="13"/>
       <c r="F218" s="13"/>
       <c r="G218" s="11"/>
@@ -6649,7 +6584,7 @@
       <c r="A224" s="27"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
-      <c r="D224" s="25"/>
+      <c r="D224" s="11"/>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
       <c r="G224" s="11"/>
@@ -6677,7 +6612,7 @@
       <c r="A226" s="27"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
-      <c r="D226" s="11"/>
+      <c r="D226" s="25"/>
       <c r="E226" s="13"/>
       <c r="F226" s="13"/>
       <c r="G226" s="11"/>
@@ -6705,7 +6640,7 @@
       <c r="A228" s="27"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
-      <c r="D228" s="25"/>
+      <c r="D228" s="11"/>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
       <c r="G228" s="11"/>
@@ -6733,7 +6668,7 @@
       <c r="A230" s="27"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
-      <c r="D230" s="11"/>
+      <c r="D230" s="25"/>
       <c r="E230" s="13"/>
       <c r="F230" s="13"/>
       <c r="G230" s="11"/>
@@ -6789,7 +6724,7 @@
       <c r="A234" s="27"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
-      <c r="D234" s="25"/>
+      <c r="D234" s="11"/>
       <c r="E234" s="13"/>
       <c r="F234" s="13"/>
       <c r="G234" s="11"/>
@@ -6817,7 +6752,7 @@
       <c r="A236" s="27"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
-      <c r="D236" s="11"/>
+      <c r="D236" s="25"/>
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
       <c r="G236" s="11"/>
@@ -6873,7 +6808,7 @@
       <c r="A240" s="27"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
-      <c r="D240" s="25"/>
+      <c r="D240" s="11"/>
       <c r="E240" s="13"/>
       <c r="F240" s="13"/>
       <c r="G240" s="11"/>
@@ -6901,7 +6836,7 @@
       <c r="A242" s="27"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
-      <c r="D242" s="11"/>
+      <c r="D242" s="25"/>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
       <c r="G242" s="11"/>
@@ -6957,7 +6892,7 @@
       <c r="A246" s="27"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
-      <c r="D246" s="25"/>
+      <c r="D246" s="11"/>
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
       <c r="G246" s="11"/>
@@ -6985,7 +6920,7 @@
       <c r="A248" s="27"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
-      <c r="D248" s="11"/>
+      <c r="D248" s="25"/>
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
       <c r="G248" s="11"/>
@@ -6996,7 +6931,7 @@
       <c r="L248" s="18"/>
     </row>
     <row r="249" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A249" s="27"/>
+      <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="25"/>
@@ -7010,7 +6945,7 @@
       <c r="L249" s="18"/>
     </row>
     <row r="250" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A250" s="27"/>
+      <c r="A250" s="8"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="25"/>
@@ -7041,7 +6976,7 @@
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
-      <c r="D252" s="25"/>
+      <c r="D252" s="11"/>
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
       <c r="G252" s="11"/>
@@ -7069,7 +7004,7 @@
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
-      <c r="D254" s="11"/>
+      <c r="D254" s="25"/>
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
       <c r="G254" s="11"/>
@@ -7083,7 +7018,7 @@
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
-      <c r="D255" s="25"/>
+      <c r="D255" s="11"/>
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
       <c r="G255" s="11"/>
@@ -7097,7 +7032,7 @@
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
-      <c r="D256" s="25"/>
+      <c r="D256" s="11"/>
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
       <c r="G256" s="11"/>
@@ -7111,7 +7046,7 @@
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
-      <c r="D257" s="11"/>
+      <c r="D257" s="25"/>
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
       <c r="G257" s="11"/>
@@ -7125,7 +7060,7 @@
       <c r="A258" s="8"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
-      <c r="D258" s="11"/>
+      <c r="D258" s="25"/>
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
       <c r="G258" s="11"/>
@@ -7165,30 +7100,30 @@
     </row>
     <row r="261" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A261" s="8"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="25"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="11"/>
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
       <c r="G261" s="11"/>
       <c r="H261" s="10"/>
       <c r="I261" s="27"/>
       <c r="J261" s="27"/>
-      <c r="K261" s="27"/>
+      <c r="K261" s="13"/>
       <c r="L261" s="18"/>
     </row>
     <row r="262" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
       <c r="A262" s="8"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="25"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="11"/>
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
       <c r="G262" s="11"/>
       <c r="H262" s="10"/>
       <c r="I262" s="27"/>
       <c r="J262" s="27"/>
-      <c r="K262" s="27"/>
+      <c r="K262" s="13"/>
       <c r="L262" s="18"/>
     </row>
     <row r="263" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
@@ -7219,7 +7154,7 @@
       <c r="K264" s="13"/>
       <c r="L264" s="18"/>
     </row>
-    <row r="265" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    <row r="265" spans="1:12">
       <c r="A265" s="8"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -7231,9 +7166,8 @@
       <c r="I265" s="27"/>
       <c r="J265" s="27"/>
       <c r="K265" s="13"/>
-      <c r="L265" s="18"/>
-    </row>
-    <row r="266" spans="1:12" s="15" customFormat="1" ht="25.15" customHeight="1">
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="8"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -7245,33 +7179,6 @@
       <c r="I266" s="27"/>
       <c r="J266" s="27"/>
       <c r="K266" s="13"/>
-      <c r="L266" s="18"/>
-    </row>
-    <row r="267" spans="1:12">
-      <c r="A267" s="8"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="13"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="11"/>
-      <c r="H267" s="10"/>
-      <c r="I267" s="27"/>
-      <c r="J267" s="27"/>
-      <c r="K267" s="13"/>
-    </row>
-    <row r="268" spans="1:12">
-      <c r="A268" s="8"/>
-      <c r="B268" s="13"/>
-      <c r="C268" s="13"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="11"/>
-      <c r="H268" s="10"/>
-      <c r="I268" s="27"/>
-      <c r="J268" s="27"/>
-      <c r="K268" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -7280,7 +7187,7 @@
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G151">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="字数限定" error="请用不多于22个文字描述事件" sqref="G149">
       <formula1>0</formula1>
       <formula2>22</formula2>
     </dataValidation>
